--- a/data/panelapp/uk/Skeletal dysplasia.xlsx
+++ b/data/panelapp/uk/Skeletal dysplasia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E599"/>
+  <dimension ref="A1:F599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693200</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693212</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693215</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693218</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693221</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693224</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693227</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693229</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693232</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693235</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693238</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693240</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693243</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693246</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693249</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693252</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693255</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693257</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693260</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693263</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693265</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693268</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693271</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693273</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693277</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693280</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693283</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693286</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693288</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693291</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693294</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693296</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693300</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693303</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693305</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693308</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693311</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693314</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693317</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693319</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693323</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693326</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693328</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693331</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693334</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693336</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693339</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693342</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693344</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693347</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693350</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693353</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693356</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693359</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693361</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693364</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693367</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693370</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693372</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693375</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693378</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693380</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693383</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693386</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693389</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693393</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693396</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693399</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693401</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693404</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693407</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693409</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693412</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693415</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693417</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693420</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693425</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693428</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693431</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693434</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693437</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693439</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693442</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693445</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693447</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693450</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693452</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693455</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693458</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693460</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693463</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693466</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693470</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693473</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693476</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693478</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693481</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693484</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693487</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693489</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693492</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693494</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693497</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693500</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693502</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693505</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693508</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693511</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693516</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693519</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693522</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693525</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693527</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693530</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693533</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693536</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693539</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693541</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693544</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693547</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693549</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693552</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693555</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693557</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693560</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693563</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693565</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693568</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693572</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693576</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693579</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693581</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693584</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693587</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693590</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693592</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693595</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693598</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693600</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693603</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693606</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693608</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693612</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693614</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693617</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693619</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693622</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693625</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693628</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693631</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693633</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693636</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693639</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693642</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693645</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693647</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693650</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693653</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693656</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693658</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693661</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693663</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693666</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693669</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693672</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693674</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693677</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693680</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693682</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693685</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693688</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693690</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693694</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693698</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693700</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693703</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693705</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693708</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693711</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693714</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693716</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693719</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693722</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693725</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693727</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5104,6 +6034,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693730</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -5129,6 +6064,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693733</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -5154,6 +6094,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693735</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -5179,6 +6124,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693738</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -5204,6 +6154,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693740</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -5229,6 +6184,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693743</t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -5254,6 +6214,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693746</t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -5279,6 +6244,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693749</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -5304,6 +6274,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693751</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -5329,6 +6304,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693754</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -5354,6 +6334,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693756</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -5379,6 +6364,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693759</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5404,6 +6394,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693762</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5429,6 +6424,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693765</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5454,6 +6454,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693767</t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5479,6 +6484,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693770</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5504,6 +6514,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693773</t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5529,6 +6544,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693776</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5554,6 +6574,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693778</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5579,6 +6604,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693781</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5604,6 +6634,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693784</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5629,6 +6664,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693786</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5654,6 +6694,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693789</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5679,6 +6724,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693791</t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5704,6 +6754,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693794</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5729,6 +6784,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693796</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5754,6 +6814,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693799</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5779,6 +6844,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693802</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5804,6 +6874,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693804</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5829,6 +6904,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693807</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5854,6 +6934,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693810</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5879,6 +6964,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693812</t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5904,6 +6994,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693815</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5929,6 +7024,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693818</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5954,6 +7054,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693820</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5979,6 +7084,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693823</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -6004,6 +7114,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693825</t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -6029,6 +7144,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693828</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -6054,6 +7174,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693831</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -6079,6 +7204,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693833</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -6104,6 +7234,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693836</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -6129,6 +7264,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693839</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -6154,6 +7294,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693841</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -6179,6 +7324,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693844</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -6204,6 +7354,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693847</t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -6229,6 +7384,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693849</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -6254,6 +7414,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693852</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -6279,6 +7444,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693856</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -6304,6 +7474,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693859</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -6329,6 +7504,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693862</t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -6354,6 +7534,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693865</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -6379,6 +7564,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693867</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -6404,6 +7594,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693870</t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -6429,6 +7624,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693873</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -6454,6 +7654,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693875</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6479,6 +7684,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693878</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6504,6 +7714,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693880</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6529,6 +7744,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693883</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6554,6 +7774,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693885</t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6579,6 +7804,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693888</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6604,6 +7834,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693891</t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6629,6 +7864,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693893</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6654,6 +7894,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693896</t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6679,6 +7924,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693899</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6704,6 +7954,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693901</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6729,6 +7984,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693904</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6754,6 +8014,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693907</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6779,6 +8044,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693909</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6804,6 +8074,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693912</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6829,6 +8104,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693915</t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6854,6 +8134,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693918</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6879,6 +8164,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693920</t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6904,6 +8194,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693923</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6929,6 +8224,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693925</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6954,6 +8254,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693928</t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6979,6 +8284,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693931</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -7004,6 +8314,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693934</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -7029,6 +8344,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693936</t>
+        </is>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -7054,6 +8374,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693939</t>
+        </is>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -7079,6 +8404,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693942</t>
+        </is>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -7104,6 +8434,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693944</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -7129,6 +8464,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693947</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -7154,6 +8494,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693950</t>
+        </is>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -7179,6 +8524,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693953</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -7204,6 +8554,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693956</t>
+        </is>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -7229,6 +8584,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693959</t>
+        </is>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -7254,6 +8614,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693961</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -7279,6 +8644,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693964</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -7304,6 +8674,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693966</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -7329,6 +8704,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693969</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -7354,6 +8734,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693972</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -7379,6 +8764,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693974</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -7404,6 +8794,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693977</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -7429,6 +8824,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693980</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -7454,6 +8854,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693982</t>
+        </is>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -7479,6 +8884,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693985</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -7504,6 +8914,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693988</t>
+        </is>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -7529,6 +8944,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693990</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -7554,6 +8974,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693993</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7579,6 +9004,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693996</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7604,6 +9034,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.693998</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7629,6 +9064,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694001</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7654,6 +9094,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694003</t>
+        </is>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7679,6 +9124,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694006</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7704,6 +9154,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694008</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7729,6 +9184,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694011</t>
+        </is>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7754,6 +9214,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694013</t>
+        </is>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7779,6 +9244,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694016</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7804,6 +9274,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694019</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7829,6 +9304,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694021</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7854,6 +9334,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694024</t>
+        </is>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7879,6 +9364,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694027</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7904,6 +9394,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694029</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7929,6 +9424,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694032</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7954,6 +9454,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694034</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7979,6 +9484,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694037</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -8004,6 +9514,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694040</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -8029,6 +9544,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694042</t>
+        </is>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -8054,6 +9574,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694045</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -8079,6 +9604,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694047</t>
+        </is>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -8104,6 +9634,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694050</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -8129,6 +9664,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694053</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -8154,6 +9694,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694055</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -8179,6 +9724,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694059</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -8204,6 +9754,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694063</t>
+        </is>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -8229,6 +9784,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694065</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -8254,6 +9814,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694068</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -8279,6 +9844,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694070</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -8304,6 +9874,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694073</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -8329,6 +9904,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694076</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -8354,6 +9934,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694078</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -8379,6 +9964,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694081</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -8404,6 +9994,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694083</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -8429,6 +10024,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694086</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -8454,6 +10054,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694089</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -8479,6 +10084,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694092</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -8504,6 +10114,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694094</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -8529,6 +10144,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694097</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -8554,6 +10174,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694099</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -8579,6 +10204,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694102</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -8604,6 +10234,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694104</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -8629,6 +10264,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694107</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -8654,6 +10294,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694110</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -8679,6 +10324,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694112</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -8704,6 +10354,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694115</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -8729,6 +10384,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694117</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -8754,6 +10414,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694120</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -8779,6 +10444,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694122</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -8804,6 +10474,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694125</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -8829,6 +10504,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694127</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -8854,6 +10534,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694130</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -8879,6 +10564,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694133</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -8904,6 +10594,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694135</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -8929,6 +10624,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694138</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -8954,6 +10654,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694140</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -8979,6 +10684,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694143</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -9004,6 +10714,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694146</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -9029,6 +10744,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694148</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -9054,6 +10774,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694151</t>
+        </is>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -9079,6 +10804,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694154</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -9104,6 +10834,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694156</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -9129,6 +10864,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694159</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -9154,6 +10894,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694161</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -9179,6 +10924,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694164</t>
+        </is>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -9204,6 +10954,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694166</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -9229,6 +10984,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694169</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -9254,6 +11014,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694172</t>
+        </is>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -9279,6 +11044,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694176</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -9304,6 +11074,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694179</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -9329,6 +11104,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694182</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -9354,6 +11134,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694184</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -9379,6 +11164,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694187</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -9404,6 +11194,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694190</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -9429,6 +11224,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694193</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -9454,6 +11254,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694195</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -9479,6 +11284,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694198</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -9504,6 +11314,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694200</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -9529,6 +11344,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694203</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -9554,6 +11374,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694206</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -9579,6 +11404,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694208</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -9604,6 +11434,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694211</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -9629,6 +11464,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694213</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -9654,6 +11494,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694216</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -9679,6 +11524,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694219</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -9704,6 +11554,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694221</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -9729,6 +11584,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694224</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -9754,6 +11614,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694226</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -9779,6 +11644,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694229</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -9804,6 +11674,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694231</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -9829,6 +11704,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694234</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -9854,6 +11734,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694236</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -9879,6 +11764,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694239</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -9904,6 +11794,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694242</t>
+        </is>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -9929,6 +11824,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694245</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -9954,6 +11854,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694247</t>
+        </is>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -9979,6 +11884,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694250</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -10004,6 +11914,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694252</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -10029,6 +11944,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694255</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -10054,6 +11974,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694257</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -10079,6 +12004,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694260</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -10104,6 +12034,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694263</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -10129,6 +12064,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694265</t>
+        </is>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -10154,6 +12094,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694268</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -10179,6 +12124,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694270</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -10204,6 +12154,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694273</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -10229,6 +12184,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694275</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -10254,6 +12214,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694278</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -10279,6 +12244,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694281</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -10304,6 +12274,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694283</t>
+        </is>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -10329,6 +12304,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694286</t>
+        </is>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -10354,6 +12334,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694288</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -10379,6 +12364,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694291</t>
+        </is>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -10404,6 +12394,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694293</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -10429,6 +12424,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694296</t>
+        </is>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -10454,6 +12454,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694299</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -10479,6 +12484,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694302</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -10504,6 +12514,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694305</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -10529,6 +12544,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694308</t>
+        </is>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -10554,6 +12574,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694310</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -10579,6 +12604,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694313</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -10604,6 +12634,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694315</t>
+        </is>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -10629,6 +12664,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F408" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694318</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -10636,12 +12676,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>NPR3</t>
+          <t>MYO18B</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>natriuretic peptide receptor 3</t>
+          <t>myosin XVIIIB</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -10652,6 +12692,11 @@
       <c r="E409" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F409" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694320</t>
         </is>
       </c>
     </row>
@@ -10661,12 +12706,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NXN</t>
+          <t>NPR3</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>nucleoredoxin</t>
+          <t>natriuretic peptide receptor 3</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -10677,6 +12722,11 @@
       <c r="E410" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694323</t>
         </is>
       </c>
     </row>
@@ -10686,12 +12736,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>PAM16</t>
+          <t>NXN</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>presequence translocase associated motor 16</t>
+          <t>nucleoredoxin</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -10702,6 +12752,11 @@
       <c r="E411" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F411" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694326</t>
         </is>
       </c>
     </row>
@@ -10711,12 +12766,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PFN1</t>
+          <t>PAM16</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>profilin 1</t>
+          <t>presequence translocase associated motor 16</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -10727,6 +12782,11 @@
       <c r="E412" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694328</t>
         </is>
       </c>
     </row>
@@ -10736,12 +12796,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>PISD</t>
+          <t>PFN1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>phosphatidylserine decarboxylase</t>
+          <t>profilin 1</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -10752,6 +12812,11 @@
       <c r="E413" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F413" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694331</t>
         </is>
       </c>
     </row>
@@ -10761,12 +12826,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>PKDCC</t>
+          <t>PISD</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>protein kinase domain containing, cytoplasmic</t>
+          <t>phosphatidylserine decarboxylase</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -10777,6 +12842,11 @@
       <c r="E414" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694333</t>
         </is>
       </c>
     </row>
@@ -10786,12 +12856,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>PLEKHM1</t>
+          <t>PKDCC</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>pleckstrin homology and RUN domain containing M1</t>
+          <t>protein kinase domain containing, cytoplasmic</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -10802,6 +12872,11 @@
       <c r="E415" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F415" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694336</t>
         </is>
       </c>
     </row>
@@ -10811,12 +12886,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>POLR1B</t>
+          <t>PLEKHM1</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>RNA polymerase I subunit B</t>
+          <t>pleckstrin homology and RUN domain containing M1</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -10827,6 +12902,11 @@
       <c r="E416" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694339</t>
         </is>
       </c>
     </row>
@@ -10836,12 +12916,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>PRKG2</t>
+          <t>POLR1B</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>protein kinase, cGMP-dependent, type II</t>
+          <t>RNA polymerase I subunit B</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -10852,6 +12932,11 @@
       <c r="E417" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694341</t>
         </is>
       </c>
     </row>
@@ -10861,12 +12946,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>RAD21</t>
+          <t>PRKG2</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>RAD21 cohesin complex component</t>
+          <t>protein kinase, cGMP-dependent, type II</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -10877,6 +12962,11 @@
       <c r="E418" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694344</t>
         </is>
       </c>
     </row>
@@ -10886,12 +12976,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>RINT1</t>
+          <t>RAD21</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>RAD50 interactor 1</t>
+          <t>RAD21 cohesin complex component</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -10902,6 +12992,11 @@
       <c r="E419" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F419" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694346</t>
         </is>
       </c>
     </row>
@@ -10911,12 +13006,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>SCUBE3</t>
+          <t>RINT1</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>signal peptide, CUB domain and EGF like domain containing 3</t>
+          <t>RAD50 interactor 1</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -10927,6 +13022,11 @@
       <c r="E420" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694349</t>
         </is>
       </c>
     </row>
@@ -10936,12 +13036,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>SGMS2</t>
+          <t>SCUBE3</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>sphingomyelin synthase 2</t>
+          <t>signal peptide, CUB domain and EGF like domain containing 3</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -10952,6 +13052,11 @@
       <c r="E421" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694352</t>
         </is>
       </c>
     </row>
@@ -10961,12 +13066,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>SMAD6</t>
+          <t>SGMS2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>SMAD family member 6</t>
+          <t>sphingomyelin synthase 2</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -10977,6 +13082,11 @@
       <c r="E422" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694354</t>
         </is>
       </c>
     </row>
@@ -10986,12 +13096,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>SUCO</t>
+          <t>SMAD6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>SUN domain containing ossification factor</t>
+          <t>SMAD family member 6</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -11002,6 +13112,11 @@
       <c r="E423" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694357</t>
         </is>
       </c>
     </row>
@@ -11011,12 +13126,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TONSL</t>
+          <t>SUCO</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>tonsoku like, DNA repair protein</t>
+          <t>SUN domain containing ossification factor</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -11027,6 +13142,11 @@
       <c r="E424" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694359</t>
         </is>
       </c>
     </row>
@@ -11036,12 +13156,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>UBA2</t>
+          <t>TONSL</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 2</t>
+          <t>tonsoku like, DNA repair protein</t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -11052,6 +13172,11 @@
       <c r="E425" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F425" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694362</t>
         </is>
       </c>
     </row>
@@ -11061,12 +13186,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>UFSP2</t>
+          <t>UBA2</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>UFM1 specific peptidase 2</t>
+          <t>ubiquitin like modifier activating enzyme 2</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -11077,6 +13202,11 @@
       <c r="E426" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694364</t>
         </is>
       </c>
     </row>
@@ -11086,12 +13216,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>UNC45A</t>
+          <t>UFSP2</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>unc-45 myosin chaperone A</t>
+          <t>UFM1 specific peptidase 2</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -11102,6 +13232,11 @@
       <c r="E427" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694367</t>
         </is>
       </c>
     </row>
@@ -11111,12 +13246,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>WBP11</t>
+          <t>UNC45A</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>WW domain binding protein 11</t>
+          <t>unc-45 myosin chaperone A</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -11127,6 +13262,11 @@
       <c r="E428" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694370</t>
         </is>
       </c>
     </row>
@@ -11136,22 +13276,27 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ACVR2B</t>
+          <t>WBP11</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>activin A receptor type 2B</t>
+          <t>WW domain binding protein 11</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694372</t>
         </is>
       </c>
     </row>
@@ -11161,12 +13306,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ADGRV1</t>
+          <t>ACVR2B</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>adhesion G protein-coupled receptor V1</t>
+          <t>activin A receptor type 2B</t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -11177,6 +13322,11 @@
       <c r="E430" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F430" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694375</t>
         </is>
       </c>
     </row>
@@ -11186,12 +13336,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>ADI1</t>
+          <t>ADGRV1</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>acireductone dioxygenase 1</t>
+          <t>adhesion G protein-coupled receptor V1</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -11202,6 +13352,11 @@
       <c r="E431" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694378</t>
         </is>
       </c>
     </row>
@@ -11211,12 +13366,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>AFF3</t>
+          <t>ADI1</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>AF4/FMR2 family member 3</t>
+          <t>acireductone dioxygenase 1</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -11227,6 +13382,11 @@
       <c r="E432" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694380</t>
         </is>
       </c>
     </row>
@@ -11236,12 +13396,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>AHI1</t>
+          <t>AFF3</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Abelson helper integration site 1</t>
+          <t>AF4/FMR2 family member 3</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -11252,6 +13412,11 @@
       <c r="E433" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F433" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694383</t>
         </is>
       </c>
     </row>
@@ -11261,12 +13426,12 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>AIPL1</t>
+          <t>AHI1</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>aryl hydrocarbon receptor interacting protein like 1</t>
+          <t>Abelson helper integration site 1</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -11277,6 +13442,11 @@
       <c r="E434" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694386</t>
         </is>
       </c>
     </row>
@@ -11286,12 +13456,12 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>AKT1</t>
+          <t>AIPL1</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>AKT serine/threonine kinase 1</t>
+          <t>aryl hydrocarbon receptor interacting protein like 1</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -11302,6 +13472,11 @@
       <c r="E435" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694388</t>
         </is>
       </c>
     </row>
@@ -11311,12 +13486,12 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ARID1A</t>
+          <t>AKT1</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>AT-rich interaction domain 1A</t>
+          <t>AKT serine/threonine kinase 1</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -11327,6 +13502,11 @@
       <c r="E436" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694391</t>
         </is>
       </c>
     </row>
@@ -11336,12 +13516,12 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>ARID1B</t>
+          <t>ARID1A</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>AT-rich interaction domain 1B</t>
+          <t>AT-rich interaction domain 1A</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -11352,6 +13532,11 @@
       <c r="E437" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694394</t>
         </is>
       </c>
     </row>
@@ -11361,12 +13546,12 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ARL13B</t>
+          <t>ARID1B</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 13B</t>
+          <t>AT-rich interaction domain 1B</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -11377,6 +13562,11 @@
       <c r="E438" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F438" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694396</t>
         </is>
       </c>
     </row>
@@ -11386,12 +13576,12 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ATXN10</t>
+          <t>ARL13B</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>ataxin 10</t>
+          <t>ADP ribosylation factor like GTPase 13B</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -11402,6 +13592,11 @@
       <c r="E439" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694399</t>
         </is>
       </c>
     </row>
@@ -11411,12 +13606,12 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>B9D2</t>
+          <t>ATXN10</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>B9 domain containing 2</t>
+          <t>ataxin 10</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -11427,6 +13622,11 @@
       <c r="E440" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694401</t>
         </is>
       </c>
     </row>
@@ -11436,12 +13636,12 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>BANF1</t>
+          <t>B9D2</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>barrier to autointegration factor 1</t>
+          <t>B9 domain containing 2</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -11452,6 +13652,11 @@
       <c r="E441" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694404</t>
         </is>
       </c>
     </row>
@@ -11461,12 +13666,12 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>C2orf71</t>
+          <t>BANF1</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>chromosome 2 open reading frame 71</t>
+          <t>barrier to autointegration factor 1</t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -11477,6 +13682,11 @@
       <c r="E442" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F442" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694406</t>
         </is>
       </c>
     </row>
@@ -11486,12 +13696,12 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>C5orf42</t>
+          <t>C2orf71</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>chromosome 5 open reading frame 42</t>
+          <t>chromosome 2 open reading frame 71</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -11502,6 +13712,11 @@
       <c r="E443" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694409</t>
         </is>
       </c>
     </row>
@@ -11511,12 +13726,12 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CCDC28B</t>
+          <t>C5orf42</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 28B</t>
+          <t>chromosome 5 open reading frame 42</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -11527,6 +13742,11 @@
       <c r="E444" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694411</t>
         </is>
       </c>
     </row>
@@ -11536,12 +13756,12 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CCDC39</t>
+          <t>CCDC28B</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 39</t>
+          <t>coiled-coil domain containing 28B</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -11552,6 +13772,11 @@
       <c r="E445" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694414</t>
         </is>
       </c>
     </row>
@@ -11561,12 +13786,12 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CCDC40</t>
+          <t>CCDC39</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 40</t>
+          <t>coiled-coil domain containing 39</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -11577,6 +13802,11 @@
       <c r="E446" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694417</t>
         </is>
       </c>
     </row>
@@ -11586,12 +13816,12 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CD96</t>
+          <t>CCDC40</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>CD96 molecule</t>
+          <t>coiled-coil domain containing 40</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -11602,6 +13832,11 @@
       <c r="E447" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694419</t>
         </is>
       </c>
     </row>
@@ -11611,12 +13846,12 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CDC6</t>
+          <t>CD96</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>cell division cycle 6</t>
+          <t>CD96 molecule</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -11627,6 +13862,11 @@
       <c r="E448" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F448" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694422</t>
         </is>
       </c>
     </row>
@@ -11636,12 +13876,12 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CDH23</t>
+          <t>CDC6</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>cadherin related 23</t>
+          <t>cell division cycle 6</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -11652,6 +13892,11 @@
       <c r="E449" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694424</t>
         </is>
       </c>
     </row>
@@ -11661,12 +13906,12 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>CEP164</t>
+          <t>CDH23</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>centrosomal protein 164</t>
+          <t>cadherin related 23</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -11677,6 +13922,11 @@
       <c r="E450" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694427</t>
         </is>
       </c>
     </row>
@@ -11686,12 +13936,12 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>CEP41</t>
+          <t>CEP164</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>centrosomal protein 41</t>
+          <t>centrosomal protein 164</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -11702,6 +13952,11 @@
       <c r="E451" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694429</t>
         </is>
       </c>
     </row>
@@ -11711,12 +13966,12 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>CFTR</t>
+          <t>CEP41</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>cystic fibrosis transmembrane conductance regulator</t>
+          <t>centrosomal protein 41</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -11727,6 +13982,11 @@
       <c r="E452" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694432</t>
         </is>
       </c>
     </row>
@@ -11736,12 +13996,12 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>CKAP2L</t>
+          <t>CFTR</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>cytoskeleton associated protein 2 like</t>
+          <t>cystic fibrosis transmembrane conductance regulator</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -11752,6 +14012,11 @@
       <c r="E453" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F453" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694434</t>
         </is>
       </c>
     </row>
@@ -11761,12 +14026,12 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>CLRN1</t>
+          <t>CKAP2L</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>clarin 1</t>
+          <t>cytoskeleton associated protein 2 like</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -11777,6 +14042,11 @@
       <c r="E454" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F454" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694437</t>
         </is>
       </c>
     </row>
@@ -11786,12 +14056,12 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>COL12A1</t>
+          <t>CLRN1</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>collagen type XII alpha 1 chain</t>
+          <t>clarin 1</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -11802,6 +14072,11 @@
       <c r="E455" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F455" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694439</t>
         </is>
       </c>
     </row>
@@ -11811,12 +14086,12 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>COL5A1</t>
+          <t>COL12A1</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>collagen type V alpha 1 chain</t>
+          <t>collagen type XII alpha 1 chain</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -11827,6 +14102,11 @@
       <c r="E456" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F456" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694442</t>
         </is>
       </c>
     </row>
@@ -11836,12 +14116,12 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>COLEC10</t>
+          <t>COL5A1</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>collectin subfamily member 10</t>
+          <t>collagen type V alpha 1 chain</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -11852,6 +14132,11 @@
       <c r="E457" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F457" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694444</t>
         </is>
       </c>
     </row>
@@ -11861,12 +14146,12 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>CRB1</t>
+          <t>COLEC10</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>crumbs 1, cell polarity complex component</t>
+          <t>collectin subfamily member 10</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -11877,6 +14162,11 @@
       <c r="E458" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694448</t>
         </is>
       </c>
     </row>
@@ -11886,12 +14176,12 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>CRELD1</t>
+          <t>CRB1</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>cysteine rich with EGF like domains 1</t>
+          <t>crumbs 1, cell polarity complex component</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -11902,6 +14192,11 @@
       <c r="E459" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694451</t>
         </is>
       </c>
     </row>
@@ -11911,12 +14206,12 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>CRX</t>
+          <t>CRELD1</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>cone-rod homeobox</t>
+          <t>cysteine rich with EGF like domains 1</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -11927,6 +14222,11 @@
       <c r="E460" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694454</t>
         </is>
       </c>
     </row>
@@ -11936,12 +14236,12 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CYP26B1</t>
+          <t>CRX</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 26 subfamily B member 1</t>
+          <t>cone-rod homeobox</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -11952,6 +14252,11 @@
       <c r="E461" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694456</t>
         </is>
       </c>
     </row>
@@ -11961,12 +14266,12 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>DACT1</t>
+          <t>CYP26B1</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>dishevelled binding antagonist of beta catenin 1</t>
+          <t>cytochrome P450 family 26 subfamily B member 1</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -11977,6 +14282,11 @@
       <c r="E462" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F462" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694459</t>
         </is>
       </c>
     </row>
@@ -11986,12 +14296,12 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DLX6</t>
+          <t>DACT1</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>distal-less homeobox 6</t>
+          <t>dishevelled binding antagonist of beta catenin 1</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -12002,6 +14312,11 @@
       <c r="E463" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F463" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694461</t>
         </is>
       </c>
     </row>
@@ -12011,12 +14326,12 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DNAAF1</t>
+          <t>DLX6</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>dynein axonemal assembly factor 1</t>
+          <t>distal-less homeobox 6</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -12027,6 +14342,11 @@
       <c r="E464" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F464" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694464</t>
         </is>
       </c>
     </row>
@@ -12036,12 +14356,12 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>DNAAF2</t>
+          <t>DNAAF1</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>dynein axonemal assembly factor 2</t>
+          <t>dynein axonemal assembly factor 1</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -12052,6 +14372,11 @@
       <c r="E465" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F465" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694466</t>
         </is>
       </c>
     </row>
@@ -12061,12 +14386,12 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>DNAAF3</t>
+          <t>DNAAF2</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>dynein axonemal assembly factor 3</t>
+          <t>dynein axonemal assembly factor 2</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -12077,6 +14402,11 @@
       <c r="E466" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694469</t>
         </is>
       </c>
     </row>
@@ -12086,12 +14416,12 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>DNAH11</t>
+          <t>DNAAF3</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>dynein axonemal heavy chain 11</t>
+          <t>dynein axonemal assembly factor 3</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -12102,6 +14432,11 @@
       <c r="E467" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F467" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694471</t>
         </is>
       </c>
     </row>
@@ -12111,12 +14446,12 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>DNAH5</t>
+          <t>DNAH11</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>dynein axonemal heavy chain 5</t>
+          <t>dynein axonemal heavy chain 11</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -12127,6 +14462,11 @@
       <c r="E468" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694474</t>
         </is>
       </c>
     </row>
@@ -12136,12 +14476,12 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>DNAI1</t>
+          <t>DNAH5</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>dynein axonemal intermediate chain 1</t>
+          <t>dynein axonemal heavy chain 5</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -12152,6 +14492,11 @@
       <c r="E469" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694476</t>
         </is>
       </c>
     </row>
@@ -12161,12 +14506,12 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DNAI2</t>
+          <t>DNAI1</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>dynein axonemal intermediate chain 2</t>
+          <t>dynein axonemal intermediate chain 1</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -12177,6 +14522,11 @@
       <c r="E470" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694479</t>
         </is>
       </c>
     </row>
@@ -12186,12 +14536,12 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>DNAL1</t>
+          <t>DNAI2</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>dynein axonemal light chain 1</t>
+          <t>dynein axonemal intermediate chain 2</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -12202,6 +14552,11 @@
       <c r="E471" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694481</t>
         </is>
       </c>
     </row>
@@ -12211,12 +14566,12 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>DOLPP1</t>
+          <t>DNAL1</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>dolichyldiphosphatase 1</t>
+          <t>dynein axonemal light chain 1</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -12227,6 +14582,11 @@
       <c r="E472" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694484</t>
         </is>
       </c>
     </row>
@@ -12236,12 +14596,12 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>DPM2</t>
+          <t>DOLPP1</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>dolichyl-phosphate mannosyltransferase subunit 2, regulatory</t>
+          <t>dolichyldiphosphatase 1</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -12252,6 +14612,11 @@
       <c r="E473" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694487</t>
         </is>
       </c>
     </row>
@@ -12261,12 +14626,12 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>DPM3</t>
+          <t>DPM2</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>dolichyl-phosphate mannosyltransferase subunit 3</t>
+          <t>dolichyl-phosphate mannosyltransferase subunit 2, regulatory</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -12277,6 +14642,11 @@
       <c r="E474" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694489</t>
         </is>
       </c>
     </row>
@@ -12286,12 +14656,12 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>EP300</t>
+          <t>DPM3</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>E1A binding protein p300</t>
+          <t>dolichyl-phosphate mannosyltransferase subunit 3</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -12302,6 +14672,11 @@
       <c r="E475" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F475" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694492</t>
         </is>
       </c>
     </row>
@@ -12311,12 +14686,12 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>ESR1</t>
+          <t>EP300</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>estrogen receptor 1</t>
+          <t>E1A binding protein p300</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -12327,6 +14702,11 @@
       <c r="E476" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F476" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694494</t>
         </is>
       </c>
     </row>
@@ -12336,12 +14716,12 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ETF1</t>
+          <t>ESR1</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>eukaryotic translation termination factor 1</t>
+          <t>estrogen receptor 1</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -12352,6 +14732,11 @@
       <c r="E477" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694497</t>
         </is>
       </c>
     </row>
@@ -12361,12 +14746,12 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>FBLIM1</t>
+          <t>ETF1</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>filamin binding LIM protein 1</t>
+          <t>eukaryotic translation termination factor 1</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -12377,6 +14762,11 @@
       <c r="E478" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694499</t>
         </is>
       </c>
     </row>
@@ -12386,12 +14776,12 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>FBXW4</t>
+          <t>FBLIM1</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>F-box and WD repeat domain containing 4</t>
+          <t>filamin binding LIM protein 1</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -12402,6 +14792,11 @@
       <c r="E479" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694502</t>
         </is>
       </c>
     </row>
@@ -12411,12 +14806,12 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>FGF8</t>
+          <t>FBXW4</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>fibroblast growth factor 8</t>
+          <t>F-box and WD repeat domain containing 4</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -12427,6 +14822,11 @@
       <c r="E480" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F480" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694504</t>
         </is>
       </c>
     </row>
@@ -12436,12 +14836,12 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>FGF9</t>
+          <t>FGF8</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>fibroblast growth factor 9</t>
+          <t>fibroblast growth factor 8</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -12452,6 +14852,11 @@
       <c r="E481" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694507</t>
         </is>
       </c>
     </row>
@@ -12461,12 +14866,12 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>FMN1</t>
+          <t>FGF9</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>formin 1</t>
+          <t>fibroblast growth factor 9</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -12477,6 +14882,11 @@
       <c r="E482" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F482" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694509</t>
         </is>
       </c>
     </row>
@@ -12486,12 +14896,12 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>FOXC1</t>
+          <t>FMN1</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>forkhead box C1</t>
+          <t>formin 1</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -12502,6 +14912,11 @@
       <c r="E483" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F483" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694512</t>
         </is>
       </c>
     </row>
@@ -12511,12 +14926,12 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>FOXH1</t>
+          <t>FOXC1</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>forkhead box H1</t>
+          <t>forkhead box C1</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -12527,6 +14942,11 @@
       <c r="E484" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694514</t>
         </is>
       </c>
     </row>
@@ -12536,12 +14956,12 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>GDF1</t>
+          <t>FOXH1</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>growth differentiation factor 1</t>
+          <t>forkhead box H1</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -12552,6 +14972,11 @@
       <c r="E485" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694517</t>
         </is>
       </c>
     </row>
@@ -12561,12 +14986,12 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>GDF3</t>
+          <t>GDF1</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>growth differentiation factor 3</t>
+          <t>growth differentiation factor 1</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -12577,6 +15002,11 @@
       <c r="E486" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F486" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694519</t>
         </is>
       </c>
     </row>
@@ -12586,12 +15016,12 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>GLIS2</t>
+          <t>GDF3</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>GLIS family zinc finger 2</t>
+          <t>growth differentiation factor 3</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -12602,6 +15032,11 @@
       <c r="E487" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F487" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694522</t>
         </is>
       </c>
     </row>
@@ -12611,12 +15046,12 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>GREM1</t>
+          <t>GLIS2</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>gremlin 1, DAN family BMP antagonist</t>
+          <t>GLIS family zinc finger 2</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -12627,6 +15062,11 @@
       <c r="E488" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F488" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694524</t>
         </is>
       </c>
     </row>
@@ -12636,12 +15076,12 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>GUCY2D</t>
+          <t>GREM1</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>guanylate cyclase 2D, retinal</t>
+          <t>gremlin 1, DAN family BMP antagonist</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -12652,6 +15092,11 @@
       <c r="E489" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F489" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694527</t>
         </is>
       </c>
     </row>
@@ -12661,12 +15106,12 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>HDAC5</t>
+          <t>GUCY2D</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>histone deacetylase 5</t>
+          <t>guanylate cyclase 2D, retinal</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -12677,6 +15122,11 @@
       <c r="E490" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694529</t>
         </is>
       </c>
     </row>
@@ -12686,12 +15136,12 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>HOXA11</t>
+          <t>HDAC5</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>homeobox A11</t>
+          <t>histone deacetylase 5</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -12702,6 +15152,11 @@
       <c r="E491" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694532</t>
         </is>
       </c>
     </row>
@@ -12711,12 +15166,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>HOXD11</t>
+          <t>HOXA11</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>homeobox D11</t>
+          <t>homeobox A11</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -12727,6 +15182,11 @@
       <c r="E492" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694534</t>
         </is>
       </c>
     </row>
@@ -12736,12 +15196,12 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>HYLS1</t>
+          <t>HOXD11</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>HYLS1, centriolar and ciliogenesis associated</t>
+          <t>homeobox D11</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -12752,6 +15212,11 @@
       <c r="E493" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694537</t>
         </is>
       </c>
     </row>
@@ -12761,12 +15226,12 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IDH2</t>
+          <t>HYLS1</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>isocitrate dehydrogenase (NADP(+)) 2, mitochondrial</t>
+          <t>HYLS1, centriolar and ciliogenesis associated</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -12777,6 +15242,11 @@
       <c r="E494" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694539</t>
         </is>
       </c>
     </row>
@@ -12786,12 +15256,12 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>IFT88</t>
+          <t>IDH2</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>intraflagellar transport 88</t>
+          <t>isocitrate dehydrogenase (NADP(+)) 2, mitochondrial</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -12802,6 +15272,11 @@
       <c r="E495" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694541</t>
         </is>
       </c>
     </row>
@@ -12811,12 +15286,12 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>IMPDH1</t>
+          <t>IFT88</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>inosine monophosphate dehydrogenase 1</t>
+          <t>intraflagellar transport 88</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -12827,6 +15302,11 @@
       <c r="E496" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694544</t>
         </is>
       </c>
     </row>
@@ -12836,12 +15316,12 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>INVS</t>
+          <t>IMPDH1</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>inversin</t>
+          <t>inosine monophosphate dehydrogenase 1</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -12852,6 +15332,11 @@
       <c r="E497" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F497" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694546</t>
         </is>
       </c>
     </row>
@@ -12861,12 +15346,12 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>IQCB1</t>
+          <t>INVS</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>IQ motif containing B1</t>
+          <t>inversin</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -12877,6 +15362,11 @@
       <c r="E498" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F498" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694549</t>
         </is>
       </c>
     </row>
@@ -12886,12 +15376,12 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>KCNJ13</t>
+          <t>IQCB1</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>potassium voltage-gated channel subfamily J member 13</t>
+          <t>IQ motif containing B1</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -12902,6 +15392,11 @@
       <c r="E499" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F499" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694551</t>
         </is>
       </c>
     </row>
@@ -12911,12 +15406,12 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>LCA5</t>
+          <t>KCNJ13</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>LCA5, lebercilin</t>
+          <t>potassium voltage-gated channel subfamily J member 13</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -12927,6 +15422,11 @@
       <c r="E500" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F500" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694554</t>
         </is>
       </c>
     </row>
@@ -12936,12 +15436,12 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>LEFTY2</t>
+          <t>LCA5</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>left-right determination factor 2</t>
+          <t>LCA5, lebercilin</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -12952,6 +15452,11 @@
       <c r="E501" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694556</t>
         </is>
       </c>
     </row>
@@ -12961,12 +15466,12 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>LFNG</t>
+          <t>LEFTY2</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>LFNG O-fucosylpeptide 3-beta-N-acetylglucosaminyltransferase</t>
+          <t>left-right determination factor 2</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -12977,6 +15482,11 @@
       <c r="E502" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F502" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694559</t>
         </is>
       </c>
     </row>
@@ -12986,12 +15496,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>LOXL3</t>
+          <t>LFNG</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>lysyl oxidase like 3</t>
+          <t>LFNG O-fucosylpeptide 3-beta-N-acetylglucosaminyltransferase</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -13002,6 +15512,11 @@
       <c r="E503" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694562</t>
         </is>
       </c>
     </row>
@@ -13011,12 +15526,12 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>LRAT</t>
+          <t>LOXL3</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>lecithin retinol acyltransferase</t>
+          <t>lysyl oxidase like 3</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -13027,6 +15542,11 @@
       <c r="E504" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F504" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694564</t>
         </is>
       </c>
     </row>
@@ -13036,12 +15556,12 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>LRP6</t>
+          <t>LRAT</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>LDL receptor related protein 6</t>
+          <t>lecithin retinol acyltransferase</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -13052,6 +15572,11 @@
       <c r="E505" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F505" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694567</t>
         </is>
       </c>
     </row>
@@ -13061,12 +15586,12 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>LTBP2</t>
+          <t>LRP6</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>latent transforming growth factor beta binding protein 2</t>
+          <t>LDL receptor related protein 6</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -13077,6 +15602,11 @@
       <c r="E506" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F506" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694569</t>
         </is>
       </c>
     </row>
@@ -13086,12 +15616,12 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>MAN2C1</t>
+          <t>LTBP2</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>mannosidase alpha class 2C member 1</t>
+          <t>latent transforming growth factor beta binding protein 2</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -13102,6 +15632,11 @@
       <c r="E507" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F507" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694572</t>
         </is>
       </c>
     </row>
@@ -13111,12 +15646,12 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>MCM5</t>
+          <t>MAN2C1</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>minichromosome maintenance complex component 5</t>
+          <t>mannosidase alpha class 2C member 1</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -13127,6 +15662,11 @@
       <c r="E508" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F508" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694574</t>
         </is>
       </c>
     </row>
@@ -13136,12 +15676,12 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>MIA3</t>
+          <t>MCM5</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>MIA family member 3, ER export factor</t>
+          <t>minichromosome maintenance complex component 5</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -13152,6 +15692,11 @@
       <c r="E509" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F509" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694577</t>
         </is>
       </c>
     </row>
@@ -13161,12 +15706,12 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>MMP14</t>
+          <t>MIA3</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>matrix metallopeptidase 14</t>
+          <t>MIA family member 3, ER export factor</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -13177,6 +15722,11 @@
       <c r="E510" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F510" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694579</t>
         </is>
       </c>
     </row>
@@ -13186,12 +15736,12 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>MTAP</t>
+          <t>MMP14</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>methylthioadenosine phosphorylase</t>
+          <t>matrix metallopeptidase 14</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -13202,6 +15752,11 @@
       <c r="E511" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F511" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694582</t>
         </is>
       </c>
     </row>
@@ -13211,12 +15766,12 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>MYO1H</t>
+          <t>MTAP</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>myosin IH</t>
+          <t>methylthioadenosine phosphorylase</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -13227,6 +15782,11 @@
       <c r="E512" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F512" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694584</t>
         </is>
       </c>
     </row>
@@ -13236,12 +15796,12 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>MYO7A</t>
+          <t>MYO1H</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>myosin VIIA</t>
+          <t>myosin IH</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -13252,6 +15812,11 @@
       <c r="E513" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F513" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694587</t>
         </is>
       </c>
     </row>
@@ -13261,12 +15826,12 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>NEK8</t>
+          <t>MYO7A</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>NIMA related kinase 8</t>
+          <t>myosin VIIA</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -13277,6 +15842,11 @@
       <c r="E514" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F514" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694589</t>
         </is>
       </c>
     </row>
@@ -13286,12 +15856,12 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>NIN</t>
+          <t>NEK8</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>ninein</t>
+          <t>NIMA related kinase 8</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -13302,6 +15872,11 @@
       <c r="E515" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694592</t>
         </is>
       </c>
     </row>
@@ -13311,12 +15886,12 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NKX2-5</t>
+          <t>NIN</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>NK2 homeobox 5</t>
+          <t>ninein</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -13327,6 +15902,11 @@
       <c r="E516" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694594</t>
         </is>
       </c>
     </row>
@@ -13336,12 +15916,12 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NME8</t>
+          <t>NKX2-5</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>NME/NM23 family member 8</t>
+          <t>NK2 homeobox 5</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -13352,6 +15932,11 @@
       <c r="E517" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694597</t>
         </is>
       </c>
     </row>
@@ -13361,12 +15946,12 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NODAL</t>
+          <t>NME8</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>nodal growth differentiation factor</t>
+          <t>NME/NM23 family member 8</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -13377,6 +15962,11 @@
       <c r="E518" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F518" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694600</t>
         </is>
       </c>
     </row>
@@ -13386,12 +15976,12 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NPHP1</t>
+          <t>NODAL</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>nephrocystin 1</t>
+          <t>nodal growth differentiation factor</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -13402,6 +15992,11 @@
       <c r="E519" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F519" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694602</t>
         </is>
       </c>
     </row>
@@ -13411,12 +16006,12 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>NPHP3</t>
+          <t>NPHP1</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>nephrocystin 3</t>
+          <t>nephrocystin 1</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -13427,6 +16022,11 @@
       <c r="E520" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F520" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694605</t>
         </is>
       </c>
     </row>
@@ -13436,12 +16036,12 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>NPHP4</t>
+          <t>NPHP3</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>nephrocystin 4</t>
+          <t>nephrocystin 3</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -13452,6 +16052,11 @@
       <c r="E521" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F521" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694607</t>
         </is>
       </c>
     </row>
@@ -13461,12 +16066,12 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>NPPC</t>
+          <t>NPHP4</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>natriuretic peptide C</t>
+          <t>nephrocystin 4</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -13477,6 +16082,11 @@
       <c r="E522" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F522" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694611</t>
         </is>
       </c>
     </row>
@@ -13486,12 +16096,12 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>OAT</t>
+          <t>NPPC</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>ornithine aminotransferase</t>
+          <t>natriuretic peptide C</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -13502,6 +16112,11 @@
       <c r="E523" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F523" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694615</t>
         </is>
       </c>
     </row>
@@ -13511,12 +16126,12 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>PCDH15</t>
+          <t>OAT</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>protocadherin related 15</t>
+          <t>ornithine aminotransferase</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -13527,6 +16142,11 @@
       <c r="E524" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694618</t>
         </is>
       </c>
     </row>
@@ -13536,12 +16156,12 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>PHF6</t>
+          <t>PCDH15</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PHD finger protein 6</t>
+          <t>protocadherin related 15</t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -13552,6 +16172,11 @@
       <c r="E525" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F525" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694620</t>
         </is>
       </c>
     </row>
@@ -13561,12 +16186,12 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>PIK3CA</t>
+          <t>PHF6</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>phosphatidylinositol-4,5-bisphosphate 3-kinase catalytic subunit alpha</t>
+          <t>PHD finger protein 6</t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -13577,6 +16202,11 @@
       <c r="E526" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F526" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694623</t>
         </is>
       </c>
     </row>
@@ -13586,12 +16216,12 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>PIN1</t>
+          <t>PIK3CA</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>peptidylprolyl cis/trans isomerase, NIMA-interacting 1</t>
+          <t>phosphatidylinositol-4,5-bisphosphate 3-kinase catalytic subunit alpha</t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -13602,6 +16232,11 @@
       <c r="E527" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F527" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694625</t>
         </is>
       </c>
     </row>
@@ -13611,12 +16246,12 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>PIR</t>
+          <t>PIN1</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>pirin</t>
+          <t>peptidylprolyl cis/trans isomerase, NIMA-interacting 1</t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -13627,6 +16262,11 @@
       <c r="E528" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F528" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694628</t>
         </is>
       </c>
     </row>
@@ -13636,12 +16276,12 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>PKD2</t>
+          <t>PIR</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>polycystin 2, transient receptor potential cation channel</t>
+          <t>pirin</t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -13652,6 +16292,11 @@
       <c r="E529" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F529" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694630</t>
         </is>
       </c>
     </row>
@@ -13661,12 +16306,12 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>PKHD1</t>
+          <t>PKD2</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PKHD1, fibrocystin/polyductin</t>
+          <t>polycystin 2, transient receptor potential cation channel</t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -13677,6 +16322,11 @@
       <c r="E530" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694633</t>
         </is>
       </c>
     </row>
@@ -13686,12 +16336,12 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>PLCB3</t>
+          <t>PKHD1</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>phospholipase C beta 3</t>
+          <t>PKHD1, fibrocystin/polyductin</t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -13702,6 +16352,11 @@
       <c r="E531" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694635</t>
         </is>
       </c>
     </row>
@@ -13711,12 +16366,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>PLK4</t>
+          <t>PLCB3</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>polo like kinase 4</t>
+          <t>phospholipase C beta 3</t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -13727,6 +16382,11 @@
       <c r="E532" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694638</t>
         </is>
       </c>
     </row>
@@ -13736,12 +16396,12 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>PLOD1</t>
+          <t>PLK4</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>procollagen-lysine,2-oxoglutarate 5-dioxygenase 1</t>
+          <t>polo like kinase 4</t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -13752,6 +16412,11 @@
       <c r="E533" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694640</t>
         </is>
       </c>
     </row>
@@ -13761,12 +16426,12 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>PTPRQ</t>
+          <t>PLOD1</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>protein tyrosine phosphatase, receptor type Q</t>
+          <t>procollagen-lysine,2-oxoglutarate 5-dioxygenase 1</t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -13777,6 +16442,11 @@
       <c r="E534" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694643</t>
         </is>
       </c>
     </row>
@@ -13786,12 +16456,12 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>RAB3GAP2</t>
+          <t>PTPRQ</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
+          <t>protein tyrosine phosphatase, receptor type Q</t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -13802,6 +16472,11 @@
       <c r="E535" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F535" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694645</t>
         </is>
       </c>
     </row>
@@ -13811,12 +16486,12 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>RD3</t>
+          <t>RAB3GAP2</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>retinal degeneration 3</t>
+          <t>RAB3 GTPase activating non-catalytic protein subunit 2</t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -13827,6 +16502,11 @@
       <c r="E536" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F536" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694648</t>
         </is>
       </c>
     </row>
@@ -13836,12 +16516,12 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>RDH12</t>
+          <t>RD3</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>retinol dehydrogenase 12 (all-trans/9-cis/11-cis)</t>
+          <t>retinal degeneration 3</t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -13852,6 +16532,11 @@
       <c r="E537" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F537" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694650</t>
         </is>
       </c>
     </row>
@@ -13861,12 +16546,12 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>RIPPLY2</t>
+          <t>RDH12</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>ripply transcriptional repressor 2</t>
+          <t>retinol dehydrogenase 12 (all-trans/9-cis/11-cis)</t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -13877,6 +16562,11 @@
       <c r="E538" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694653</t>
         </is>
       </c>
     </row>
@@ -13886,12 +16576,12 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>RPE65</t>
+          <t>RIPPLY2</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>RPE65, retinoid isomerohydrolase</t>
+          <t>ripply transcriptional repressor 2</t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -13902,6 +16592,11 @@
       <c r="E539" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694655</t>
         </is>
       </c>
     </row>
@@ -13911,12 +16606,12 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>RPGR</t>
+          <t>RPE65</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>retinitis pigmentosa GTPase regulator</t>
+          <t>RPE65, retinoid isomerohydrolase</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -13927,6 +16622,11 @@
       <c r="E540" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694658</t>
         </is>
       </c>
     </row>
@@ -13936,12 +16636,12 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>RPGRIP1</t>
+          <t>RPGR</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>RPGR interacting protein 1</t>
+          <t>retinitis pigmentosa GTPase regulator</t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -13952,6 +16652,11 @@
       <c r="E541" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F541" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694660</t>
         </is>
       </c>
     </row>
@@ -13961,12 +16666,12 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>RSPH4A</t>
+          <t>RPGRIP1</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>radial spoke head 4 homolog A</t>
+          <t>RPGR interacting protein 1</t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -13977,6 +16682,11 @@
       <c r="E542" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F542" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694663</t>
         </is>
       </c>
     </row>
@@ -13986,12 +16696,12 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>RSPH9</t>
+          <t>RSPH4A</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>radial spoke head 9 homolog</t>
+          <t>radial spoke head 4 homolog A</t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -14002,6 +16712,11 @@
       <c r="E543" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F543" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694665</t>
         </is>
       </c>
     </row>
@@ -14011,12 +16726,12 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>SCNN1A</t>
+          <t>RSPH9</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>sodium channel epithelial 1 alpha subunit</t>
+          <t>radial spoke head 9 homolog</t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -14027,6 +16742,11 @@
       <c r="E544" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694668</t>
         </is>
       </c>
     </row>
@@ -14036,12 +16756,12 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>SCNN1B</t>
+          <t>SCNN1A</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>sodium channel epithelial 1 beta subunit</t>
+          <t>sodium channel epithelial 1 alpha subunit</t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -14052,6 +16772,11 @@
       <c r="E545" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694670</t>
         </is>
       </c>
     </row>
@@ -14061,12 +16786,12 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>SCNN1G</t>
+          <t>SCNN1B</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>sodium channel epithelial 1 gamma subunit</t>
+          <t>sodium channel epithelial 1 beta subunit</t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -14077,6 +16802,11 @@
       <c r="E546" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694673</t>
         </is>
       </c>
     </row>
@@ -14086,12 +16816,12 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>SDCCAG8</t>
+          <t>SCNN1G</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>serologically defined colon cancer antigen 8</t>
+          <t>sodium channel epithelial 1 gamma subunit</t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -14102,6 +16832,11 @@
       <c r="E547" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694675</t>
         </is>
       </c>
     </row>
@@ -14111,12 +16846,12 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>SEM1</t>
+          <t>SDCCAG8</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>SEM1, 26S proteasome complex subunit</t>
+          <t>serologically defined colon cancer antigen 8</t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -14127,6 +16862,11 @@
       <c r="E548" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694677</t>
         </is>
       </c>
     </row>
@@ -14136,12 +16876,12 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>SHH</t>
+          <t>SEM1</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>sonic hedgehog</t>
+          <t>SEM1, 26S proteasome complex subunit</t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -14152,6 +16892,11 @@
       <c r="E549" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694680</t>
         </is>
       </c>
     </row>
@@ -14161,12 +16906,12 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>SLCO5A1</t>
+          <t>SHH</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>solute carrier organic anion transporter family member 5A1</t>
+          <t>sonic hedgehog</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -14177,6 +16922,11 @@
       <c r="E550" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694682</t>
         </is>
       </c>
     </row>
@@ -14186,12 +16936,12 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>SMARCA2</t>
+          <t>SLCO5A1</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 2</t>
+          <t>solute carrier organic anion transporter family member 5A1</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -14202,6 +16952,11 @@
       <c r="E551" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694685</t>
         </is>
       </c>
     </row>
@@ -14211,12 +16966,12 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>SMARCA4</t>
+          <t>SMARCA2</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 4</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 2</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -14227,6 +16982,11 @@
       <c r="E552" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694687</t>
         </is>
       </c>
     </row>
@@ -14236,12 +16996,12 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>SMARCB1</t>
+          <t>SMARCA4</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily b, member 1</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily a, member 4</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -14252,6 +17012,11 @@
       <c r="E553" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694690</t>
         </is>
       </c>
     </row>
@@ -14261,12 +17026,12 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>SMARCE1</t>
+          <t>SMARCB1</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily e, member 1</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily b, member 1</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -14277,6 +17042,11 @@
       <c r="E554" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694693</t>
         </is>
       </c>
     </row>
@@ -14286,12 +17056,12 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>SOX11</t>
+          <t>SMARCE1</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>SRY-box 11</t>
+          <t>SWI/SNF related, matrix associated, actin dependent regulator of chromatin, subfamily e, member 1</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -14302,6 +17072,11 @@
       <c r="E555" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694695</t>
         </is>
       </c>
     </row>
@@ -14311,12 +17086,12 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>SPATA7</t>
+          <t>SOX11</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>spermatogenesis associated 7</t>
+          <t>SRY-box 11</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -14327,6 +17102,11 @@
       <c r="E556" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694698</t>
         </is>
       </c>
     </row>
@@ -14336,12 +17116,12 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SPECC1L</t>
+          <t>SPATA7</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>sperm antigen with calponin homology and coiled-coil domains 1 like</t>
+          <t>spermatogenesis associated 7</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -14352,6 +17132,11 @@
       <c r="E557" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694700</t>
         </is>
       </c>
     </row>
@@ -14361,12 +17146,12 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>SULF1</t>
+          <t>SPECC1L</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>sulfatase 1</t>
+          <t>sperm antigen with calponin homology and coiled-coil domains 1 like</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -14377,6 +17162,11 @@
       <c r="E558" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694703</t>
         </is>
       </c>
     </row>
@@ -14386,12 +17176,12 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>TCTN1</t>
+          <t>SULF1</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>tectonic family member 1</t>
+          <t>sulfatase 1</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -14402,6 +17192,11 @@
       <c r="E559" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694705</t>
         </is>
       </c>
     </row>
@@ -14411,12 +17206,12 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>TDP2</t>
+          <t>TCTN1</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>tyrosyl-DNA phosphodiesterase 2</t>
+          <t>tectonic family member 1</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -14427,6 +17222,11 @@
       <c r="E560" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694707</t>
         </is>
       </c>
     </row>
@@ -14436,12 +17236,12 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>TGDS</t>
+          <t>TDP2</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>TDP-glucose 4,6-dehydratase</t>
+          <t>tyrosyl-DNA phosphodiesterase 2</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -14452,6 +17252,11 @@
       <c r="E561" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694710</t>
         </is>
       </c>
     </row>
@@ -14461,12 +17266,12 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>THPO</t>
+          <t>TGDS</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>thrombopoietin</t>
+          <t>TDP-glucose 4,6-dehydratase</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -14477,6 +17282,11 @@
       <c r="E562" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694712</t>
         </is>
       </c>
     </row>
@@ -14486,12 +17296,12 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>TMEM138</t>
+          <t>THPO</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>transmembrane protein 138</t>
+          <t>thrombopoietin</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -14502,6 +17312,11 @@
       <c r="E563" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694715</t>
         </is>
       </c>
     </row>
@@ -14511,12 +17326,12 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>TMEM237</t>
+          <t>TMEM138</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>transmembrane protein 237</t>
+          <t>transmembrane protein 138</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -14527,6 +17342,11 @@
       <c r="E564" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694717</t>
         </is>
       </c>
     </row>
@@ -14536,12 +17356,12 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>TMEM67</t>
+          <t>TMEM237</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>transmembrane protein 67</t>
+          <t>transmembrane protein 237</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -14552,6 +17372,11 @@
       <c r="E565" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694720</t>
         </is>
       </c>
     </row>
@@ -14561,12 +17386,12 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>TNXB</t>
+          <t>TMEM67</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>tenascin XB</t>
+          <t>transmembrane protein 67</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -14577,6 +17402,11 @@
       <c r="E566" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694722</t>
         </is>
       </c>
     </row>
@@ -14586,12 +17416,12 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>TOPORS</t>
+          <t>TNXB</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>TOP1 binding arginine/serine rich protein</t>
+          <t>tenascin XB</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -14602,6 +17432,11 @@
       <c r="E567" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694725</t>
         </is>
       </c>
     </row>
@@ -14611,12 +17446,12 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>TRIM32</t>
+          <t>TOPORS</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>tripartite motif containing 32</t>
+          <t>TOP1 binding arginine/serine rich protein</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -14627,6 +17462,11 @@
       <c r="E568" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694727</t>
         </is>
       </c>
     </row>
@@ -14636,12 +17476,12 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>TRMT10A</t>
+          <t>TRIM32</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>tRNA methyltransferase 10A</t>
+          <t>tripartite motif containing 32</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -14652,6 +17492,11 @@
       <c r="E569" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694730</t>
         </is>
       </c>
     </row>
@@ -14661,12 +17506,12 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>TSC1</t>
+          <t>TRMT10A</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>TSC complex subunit 1</t>
+          <t>tRNA methyltransferase 10A</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -14677,6 +17522,11 @@
       <c r="E570" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694732</t>
         </is>
       </c>
     </row>
@@ -14686,12 +17536,12 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>TSC2</t>
+          <t>TSC1</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>TSC complex subunit 2</t>
+          <t>TSC complex subunit 1</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -14702,6 +17552,11 @@
       <c r="E571" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694734</t>
         </is>
       </c>
     </row>
@@ -14711,12 +17566,12 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>TULP1</t>
+          <t>TSC2</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>tubby like protein 1</t>
+          <t>TSC complex subunit 2</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -14727,6 +17582,11 @@
       <c r="E572" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694737</t>
         </is>
       </c>
     </row>
@@ -14736,12 +17596,12 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>UMOD</t>
+          <t>TULP1</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>uromodulin</t>
+          <t>tubby like protein 1</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -14752,6 +17612,11 @@
       <c r="E573" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694739</t>
         </is>
       </c>
     </row>
@@ -14761,12 +17626,12 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>USH1C</t>
+          <t>UMOD</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>USH1 protein network component harmonin</t>
+          <t>uromodulin</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -14777,6 +17642,11 @@
       <c r="E574" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694742</t>
         </is>
       </c>
     </row>
@@ -14786,12 +17656,12 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>USH1G</t>
+          <t>USH1C</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>USH1 protein network component sans</t>
+          <t>USH1 protein network component harmonin</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -14802,6 +17672,11 @@
       <c r="E575" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694744</t>
         </is>
       </c>
     </row>
@@ -14811,12 +17686,12 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>USH2A</t>
+          <t>USH1G</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>usherin</t>
+          <t>USH1 protein network component sans</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -14827,6 +17702,11 @@
       <c r="E576" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694747</t>
         </is>
       </c>
     </row>
@@ -14836,12 +17716,12 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>USP9X</t>
+          <t>USH2A</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>ubiquitin specific peptidase 9, X-linked</t>
+          <t>usherin</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -14852,6 +17732,11 @@
       <c r="E577" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694749</t>
         </is>
       </c>
     </row>
@@ -14861,12 +17746,12 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>VAC14</t>
+          <t>USP9X</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Vac14, PIKFYVE complex component</t>
+          <t>ubiquitin specific peptidase 9, X-linked</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -14877,6 +17762,11 @@
       <c r="E578" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694752</t>
         </is>
       </c>
     </row>
@@ -14886,12 +17776,12 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>VHL</t>
+          <t>VAC14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>von Hippel-Lindau tumor suppressor</t>
+          <t>Vac14, PIKFYVE complex component</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -14902,6 +17792,11 @@
       <c r="E579" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694754</t>
         </is>
       </c>
     </row>
@@ -14911,12 +17806,12 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>WHRN</t>
+          <t>VHL</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>whirlin</t>
+          <t>von Hippel-Lindau tumor suppressor</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -14927,6 +17822,11 @@
       <c r="E580" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694757</t>
         </is>
       </c>
     </row>
@@ -14936,12 +17836,12 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>WNT3</t>
+          <t>WHRN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Wnt family member 3</t>
+          <t>whirlin</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -14952,6 +17852,11 @@
       <c r="E581" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694759</t>
         </is>
       </c>
     </row>
@@ -14961,12 +17866,12 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>WRN</t>
+          <t>WNT3</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Werner syndrome RecQ like helicase</t>
+          <t>Wnt family member 3</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -14977,6 +17882,11 @@
       <c r="E582" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694762</t>
         </is>
       </c>
     </row>
@@ -14986,12 +17896,12 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>XPNPEP3</t>
+          <t>WRN</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>X-prolyl aminopeptidase 3</t>
+          <t>Werner syndrome RecQ like helicase</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -15002,6 +17912,11 @@
       <c r="E583" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694764</t>
         </is>
       </c>
     </row>
@@ -15011,12 +17926,12 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>ZBTB16</t>
+          <t>XPNPEP3</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>zinc finger and BTB domain containing 16</t>
+          <t>X-prolyl aminopeptidase 3</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -15027,6 +17942,11 @@
       <c r="E584" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694766</t>
         </is>
       </c>
     </row>
@@ -15036,12 +17956,12 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>ZIC3</t>
+          <t>ZBTB16</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Zic family member 3</t>
+          <t>zinc finger and BTB domain containing 16</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -15052,6 +17972,11 @@
       <c r="E585" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694769</t>
         </is>
       </c>
     </row>
@@ -15061,12 +17986,12 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>ZNF423</t>
+          <t>ZIC3</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>zinc finger protein 423</t>
+          <t>Zic family member 3</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -15077,6 +18002,11 @@
       <c r="E586" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694771</t>
         </is>
       </c>
     </row>
@@ -15086,22 +18016,27 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>EFNB1</t>
+          <t>ZNF423</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>ephrin B1</t>
+          <t>zinc finger protein 423</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E587" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694774</t>
         </is>
       </c>
     </row>
@@ -15111,12 +18046,12 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>EN1</t>
+          <t>EFNB1</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>engrailed homeobox 1</t>
+          <t>ephrin B1</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -15127,6 +18062,11 @@
       <c r="E588" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694776</t>
         </is>
       </c>
     </row>
@@ -15136,12 +18076,12 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>HHAT</t>
+          <t>EN1</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>hedgehog acyltransferase</t>
+          <t>engrailed homeobox 1</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -15152,6 +18092,11 @@
       <c r="E589" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694779</t>
         </is>
       </c>
     </row>
@@ -15161,12 +18106,12 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>IGF1R</t>
+          <t>HHAT</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>insulin like growth factor 1 receptor</t>
+          <t>hedgehog acyltransferase</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -15177,6 +18122,11 @@
       <c r="E590" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694781</t>
         </is>
       </c>
     </row>
@@ -15186,12 +18136,12 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>KAT6A</t>
+          <t>IGF1R</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>lysine acetyltransferase 6A</t>
+          <t>insulin like growth factor 1 receptor</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -15202,6 +18152,11 @@
       <c r="E591" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694784</t>
         </is>
       </c>
     </row>
@@ -15211,12 +18166,12 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>MYO18B</t>
+          <t>KAT6A</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>myosin XVIIIB</t>
+          <t>lysine acetyltransferase 6A</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -15227,6 +18182,11 @@
       <c r="E592" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694787</t>
         </is>
       </c>
     </row>
@@ -15254,6 +18214,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F593" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694789</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -15279,6 +18244,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694794</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -15304,6 +18274,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F595" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694797</t>
+        </is>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -15329,6 +18304,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694800</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -15354,6 +18334,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694802</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -15379,6 +18364,11 @@
           <t>Skeletal dysplasia</t>
         </is>
       </c>
+      <c r="F598" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694805</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -15402,6 +18392,11 @@
       <c r="E599" t="inlineStr">
         <is>
           <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr">
+        <is>
+          <t>2021-10-05 13:42:16.694808</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/uk/Skeletal dysplasia.xlsx
+++ b/data/panelapp/uk/Skeletal dysplasia.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693200</t>
+          <t>2021-10-05 14:22:48.099676</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693212</t>
+          <t>2021-10-05 14:22:48.099683</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693215</t>
+          <t>2021-10-05 14:22:48.099687</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693218</t>
+          <t>2021-10-05 14:22:48.099689</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693221</t>
+          <t>2021-10-05 14:22:48.099692</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693224</t>
+          <t>2021-10-05 14:22:48.099695</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693227</t>
+          <t>2021-10-05 14:22:48.099697</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693229</t>
+          <t>2021-10-05 14:22:48.099700</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693232</t>
+          <t>2021-10-05 14:22:48.099702</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693235</t>
+          <t>2021-10-05 14:22:48.099705</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693238</t>
+          <t>2021-10-05 14:22:48.099707</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693240</t>
+          <t>2021-10-05 14:22:48.099710</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693243</t>
+          <t>2021-10-05 14:22:48.099712</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693246</t>
+          <t>2021-10-05 14:22:48.099715</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693249</t>
+          <t>2021-10-05 14:22:48.099717</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693252</t>
+          <t>2021-10-05 14:22:48.099720</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693255</t>
+          <t>2021-10-05 14:22:48.099723</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693257</t>
+          <t>2021-10-05 14:22:48.099725</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693260</t>
+          <t>2021-10-05 14:22:48.099728</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693263</t>
+          <t>2021-10-05 14:22:48.099730</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693265</t>
+          <t>2021-10-05 14:22:48.099733</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693268</t>
+          <t>2021-10-05 14:22:48.099735</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693271</t>
+          <t>2021-10-05 14:22:48.099738</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693273</t>
+          <t>2021-10-05 14:22:48.099740</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693277</t>
+          <t>2021-10-05 14:22:48.099743</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693280</t>
+          <t>2021-10-05 14:22:48.099746</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693283</t>
+          <t>2021-10-05 14:22:48.099748</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693286</t>
+          <t>2021-10-05 14:22:48.099751</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693288</t>
+          <t>2021-10-05 14:22:48.099753</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693291</t>
+          <t>2021-10-05 14:22:48.099756</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693294</t>
+          <t>2021-10-05 14:22:48.099758</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693296</t>
+          <t>2021-10-05 14:22:48.099761</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693300</t>
+          <t>2021-10-05 14:22:48.099764</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693303</t>
+          <t>2021-10-05 14:22:48.099766</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693305</t>
+          <t>2021-10-05 14:22:48.099769</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693308</t>
+          <t>2021-10-05 14:22:48.099771</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693311</t>
+          <t>2021-10-05 14:22:48.099773</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693314</t>
+          <t>2021-10-05 14:22:48.099776</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693317</t>
+          <t>2021-10-05 14:22:48.099778</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693319</t>
+          <t>2021-10-05 14:22:48.099781</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693323</t>
+          <t>2021-10-05 14:22:48.099784</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693326</t>
+          <t>2021-10-05 14:22:48.099786</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693328</t>
+          <t>2021-10-05 14:22:48.099789</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693331</t>
+          <t>2021-10-05 14:22:48.099791</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693334</t>
+          <t>2021-10-05 14:22:48.099793</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693336</t>
+          <t>2021-10-05 14:22:48.099796</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693339</t>
+          <t>2021-10-05 14:22:48.099798</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693342</t>
+          <t>2021-10-05 14:22:48.099801</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693344</t>
+          <t>2021-10-05 14:22:48.099803</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693347</t>
+          <t>2021-10-05 14:22:48.099806</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693350</t>
+          <t>2021-10-05 14:22:48.099808</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693353</t>
+          <t>2021-10-05 14:22:48.099811</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693356</t>
+          <t>2021-10-05 14:22:48.099814</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693359</t>
+          <t>2021-10-05 14:22:48.099816</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693361</t>
+          <t>2021-10-05 14:22:48.099819</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693364</t>
+          <t>2021-10-05 14:22:48.099821</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693367</t>
+          <t>2021-10-05 14:22:48.099824</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693370</t>
+          <t>2021-10-05 14:22:48.099826</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693372</t>
+          <t>2021-10-05 14:22:48.099829</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693375</t>
+          <t>2021-10-05 14:22:48.099831</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693378</t>
+          <t>2021-10-05 14:22:48.099833</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693380</t>
+          <t>2021-10-05 14:22:48.099836</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693383</t>
+          <t>2021-10-05 14:22:48.099838</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693386</t>
+          <t>2021-10-05 14:22:48.099841</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693389</t>
+          <t>2021-10-05 14:22:48.099844</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693393</t>
+          <t>2021-10-05 14:22:48.099847</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693396</t>
+          <t>2021-10-05 14:22:48.099849</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693399</t>
+          <t>2021-10-05 14:22:48.099852</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693401</t>
+          <t>2021-10-05 14:22:48.099855</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693404</t>
+          <t>2021-10-05 14:22:48.099857</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693407</t>
+          <t>2021-10-05 14:22:48.099859</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693409</t>
+          <t>2021-10-05 14:22:48.099862</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693412</t>
+          <t>2021-10-05 14:22:48.099864</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693415</t>
+          <t>2021-10-05 14:22:48.099867</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693417</t>
+          <t>2021-10-05 14:22:48.099869</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693420</t>
+          <t>2021-10-05 14:22:48.099872</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693425</t>
+          <t>2021-10-05 14:22:48.099876</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693428</t>
+          <t>2021-10-05 14:22:48.099879</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693431</t>
+          <t>2021-10-05 14:22:48.099882</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693434</t>
+          <t>2021-10-05 14:22:48.099884</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693437</t>
+          <t>2021-10-05 14:22:48.099887</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693439</t>
+          <t>2021-10-05 14:22:48.099889</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693442</t>
+          <t>2021-10-05 14:22:48.099892</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693445</t>
+          <t>2021-10-05 14:22:48.099894</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693447</t>
+          <t>2021-10-05 14:22:48.099896</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693450</t>
+          <t>2021-10-05 14:22:48.099899</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693452</t>
+          <t>2021-10-05 14:22:48.099901</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693455</t>
+          <t>2021-10-05 14:22:48.099904</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693458</t>
+          <t>2021-10-05 14:22:48.099906</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693460</t>
+          <t>2021-10-05 14:22:48.099909</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693463</t>
+          <t>2021-10-05 14:22:48.099911</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693466</t>
+          <t>2021-10-05 14:22:48.099914</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693470</t>
+          <t>2021-10-05 14:22:48.099918</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693473</t>
+          <t>2021-10-05 14:22:48.099920</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693476</t>
+          <t>2021-10-05 14:22:48.099923</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693478</t>
+          <t>2021-10-05 14:22:48.099926</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693481</t>
+          <t>2021-10-05 14:22:48.099928</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693484</t>
+          <t>2021-10-05 14:22:48.099931</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693487</t>
+          <t>2021-10-05 14:22:48.099933</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693489</t>
+          <t>2021-10-05 14:22:48.099936</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693492</t>
+          <t>2021-10-05 14:22:48.099938</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693494</t>
+          <t>2021-10-05 14:22:48.099941</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693497</t>
+          <t>2021-10-05 14:22:48.099943</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693500</t>
+          <t>2021-10-05 14:22:48.099946</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693502</t>
+          <t>2021-10-05 14:22:48.099948</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693505</t>
+          <t>2021-10-05 14:22:48.099950</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693508</t>
+          <t>2021-10-05 14:22:48.099953</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693511</t>
+          <t>2021-10-05 14:22:48.099955</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693516</t>
+          <t>2021-10-05 14:22:48.099960</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693519</t>
+          <t>2021-10-05 14:22:48.099962</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693522</t>
+          <t>2021-10-05 14:22:48.099965</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693525</t>
+          <t>2021-10-05 14:22:48.099967</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693527</t>
+          <t>2021-10-05 14:22:48.099970</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693530</t>
+          <t>2021-10-05 14:22:48.099972</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693533</t>
+          <t>2021-10-05 14:22:48.099975</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693536</t>
+          <t>2021-10-05 14:22:48.099977</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693539</t>
+          <t>2021-10-05 14:22:48.099980</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693541</t>
+          <t>2021-10-05 14:22:48.099982</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693544</t>
+          <t>2021-10-05 14:22:48.099985</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693547</t>
+          <t>2021-10-05 14:22:48.099987</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693549</t>
+          <t>2021-10-05 14:22:48.099989</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693552</t>
+          <t>2021-10-05 14:22:48.099992</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693555</t>
+          <t>2021-10-05 14:22:48.099994</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693557</t>
+          <t>2021-10-05 14:22:48.099997</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693560</t>
+          <t>2021-10-05 14:22:48.099999</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693563</t>
+          <t>2021-10-05 14:22:48.100002</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693565</t>
+          <t>2021-10-05 14:22:48.100004</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693568</t>
+          <t>2021-10-05 14:22:48.100007</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693572</t>
+          <t>2021-10-05 14:22:48.100011</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693576</t>
+          <t>2021-10-05 14:22:48.100014</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693579</t>
+          <t>2021-10-05 14:22:48.100017</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693581</t>
+          <t>2021-10-05 14:22:48.100019</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693584</t>
+          <t>2021-10-05 14:22:48.100022</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693587</t>
+          <t>2021-10-05 14:22:48.100024</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693590</t>
+          <t>2021-10-05 14:22:48.100027</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693592</t>
+          <t>2021-10-05 14:22:48.100029</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693595</t>
+          <t>2021-10-05 14:22:48.100031</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693598</t>
+          <t>2021-10-05 14:22:48.100034</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693600</t>
+          <t>2021-10-05 14:22:48.100036</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693603</t>
+          <t>2021-10-05 14:22:48.100039</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693606</t>
+          <t>2021-10-05 14:22:48.100041</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693608</t>
+          <t>2021-10-05 14:22:48.100044</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693612</t>
+          <t>2021-10-05 14:22:48.100046</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693614</t>
+          <t>2021-10-05 14:22:48.100049</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693617</t>
+          <t>2021-10-05 14:22:48.100051</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693619</t>
+          <t>2021-10-05 14:22:48.100054</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693622</t>
+          <t>2021-10-05 14:22:48.100056</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693625</t>
+          <t>2021-10-05 14:22:48.100059</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693628</t>
+          <t>2021-10-05 14:22:48.100061</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693631</t>
+          <t>2021-10-05 14:22:48.100064</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693633</t>
+          <t>2021-10-05 14:22:48.100066</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693636</t>
+          <t>2021-10-05 14:22:48.100069</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693639</t>
+          <t>2021-10-05 14:22:48.100071</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693642</t>
+          <t>2021-10-05 14:22:48.100074</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693645</t>
+          <t>2021-10-05 14:22:48.100076</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693647</t>
+          <t>2021-10-05 14:22:48.100079</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693650</t>
+          <t>2021-10-05 14:22:48.100081</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693653</t>
+          <t>2021-10-05 14:22:48.100083</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693656</t>
+          <t>2021-10-05 14:22:48.100086</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693658</t>
+          <t>2021-10-05 14:22:48.100088</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693661</t>
+          <t>2021-10-05 14:22:48.100091</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693663</t>
+          <t>2021-10-05 14:22:48.100093</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693666</t>
+          <t>2021-10-05 14:22:48.100096</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693669</t>
+          <t>2021-10-05 14:22:48.100098</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693672</t>
+          <t>2021-10-05 14:22:48.100101</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693674</t>
+          <t>2021-10-05 14:22:48.100103</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693677</t>
+          <t>2021-10-05 14:22:48.100106</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693680</t>
+          <t>2021-10-05 14:22:48.100108</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693682</t>
+          <t>2021-10-05 14:22:48.100110</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693685</t>
+          <t>2021-10-05 14:22:48.100113</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693688</t>
+          <t>2021-10-05 14:22:48.100115</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693690</t>
+          <t>2021-10-05 14:22:48.100118</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693694</t>
+          <t>2021-10-05 14:22:48.100122</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693698</t>
+          <t>2021-10-05 14:22:48.100125</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693700</t>
+          <t>2021-10-05 14:22:48.100128</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693703</t>
+          <t>2021-10-05 14:22:48.100130</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693705</t>
+          <t>2021-10-05 14:22:48.100133</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693708</t>
+          <t>2021-10-05 14:22:48.100135</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693711</t>
+          <t>2021-10-05 14:22:48.100138</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693714</t>
+          <t>2021-10-05 14:22:48.100140</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693716</t>
+          <t>2021-10-05 14:22:48.100143</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693719</t>
+          <t>2021-10-05 14:22:48.100145</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693722</t>
+          <t>2021-10-05 14:22:48.100147</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693725</t>
+          <t>2021-10-05 14:22:48.100150</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693727</t>
+          <t>2021-10-05 14:22:48.100152</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693730</t>
+          <t>2021-10-05 14:22:48.100155</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693733</t>
+          <t>2021-10-05 14:22:48.100157</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693735</t>
+          <t>2021-10-05 14:22:48.100160</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693738</t>
+          <t>2021-10-05 14:22:48.100162</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693740</t>
+          <t>2021-10-05 14:22:48.100164</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693743</t>
+          <t>2021-10-05 14:22:48.100167</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693746</t>
+          <t>2021-10-05 14:22:48.100169</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693749</t>
+          <t>2021-10-05 14:22:48.100172</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693751</t>
+          <t>2021-10-05 14:22:48.100174</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693754</t>
+          <t>2021-10-05 14:22:48.100177</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693756</t>
+          <t>2021-10-05 14:22:48.100179</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693759</t>
+          <t>2021-10-05 14:22:48.100182</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693762</t>
+          <t>2021-10-05 14:22:48.100184</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693765</t>
+          <t>2021-10-05 14:22:48.100187</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693767</t>
+          <t>2021-10-05 14:22:48.100189</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693770</t>
+          <t>2021-10-05 14:22:48.100192</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693773</t>
+          <t>2021-10-05 14:22:48.100194</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693776</t>
+          <t>2021-10-05 14:22:48.100197</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693778</t>
+          <t>2021-10-05 14:22:48.100199</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693781</t>
+          <t>2021-10-05 14:22:48.100202</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693784</t>
+          <t>2021-10-05 14:22:48.100204</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693786</t>
+          <t>2021-10-05 14:22:48.100207</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693789</t>
+          <t>2021-10-05 14:22:48.100209</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693791</t>
+          <t>2021-10-05 14:22:48.100212</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693794</t>
+          <t>2021-10-05 14:22:48.100214</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693796</t>
+          <t>2021-10-05 14:22:48.100216</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693799</t>
+          <t>2021-10-05 14:22:48.100219</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693802</t>
+          <t>2021-10-05 14:22:48.100221</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693804</t>
+          <t>2021-10-05 14:22:48.100224</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693807</t>
+          <t>2021-10-05 14:22:48.100226</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693810</t>
+          <t>2021-10-05 14:22:48.100229</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693812</t>
+          <t>2021-10-05 14:22:48.100231</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693815</t>
+          <t>2021-10-05 14:22:48.100234</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693818</t>
+          <t>2021-10-05 14:22:48.100236</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693820</t>
+          <t>2021-10-05 14:22:48.100239</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693823</t>
+          <t>2021-10-05 14:22:48.100241</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693825</t>
+          <t>2021-10-05 14:22:48.100244</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693828</t>
+          <t>2021-10-05 14:22:48.100246</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693831</t>
+          <t>2021-10-05 14:22:48.100249</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693833</t>
+          <t>2021-10-05 14:22:48.100251</t>
         </is>
       </c>
     </row>
@@ -7236,7 +7237,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693836</t>
+          <t>2021-10-05 14:22:48.100254</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7267,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693839</t>
+          <t>2021-10-05 14:22:48.100256</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7297,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693841</t>
+          <t>2021-10-05 14:22:48.100258</t>
         </is>
       </c>
     </row>
@@ -7326,7 +7327,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693844</t>
+          <t>2021-10-05 14:22:48.100261</t>
         </is>
       </c>
     </row>
@@ -7356,7 +7357,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693847</t>
+          <t>2021-10-05 14:22:48.100263</t>
         </is>
       </c>
     </row>
@@ -7386,7 +7387,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693849</t>
+          <t>2021-10-05 14:22:48.100266</t>
         </is>
       </c>
     </row>
@@ -7416,7 +7417,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693852</t>
+          <t>2021-10-05 14:22:48.100268</t>
         </is>
       </c>
     </row>
@@ -7446,7 +7447,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693856</t>
+          <t>2021-10-05 14:22:48.100272</t>
         </is>
       </c>
     </row>
@@ -7476,7 +7477,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693859</t>
+          <t>2021-10-05 14:22:48.100275</t>
         </is>
       </c>
     </row>
@@ -7506,7 +7507,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693862</t>
+          <t>2021-10-05 14:22:48.100278</t>
         </is>
       </c>
     </row>
@@ -7536,7 +7537,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693865</t>
+          <t>2021-10-05 14:22:48.100280</t>
         </is>
       </c>
     </row>
@@ -7566,7 +7567,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693867</t>
+          <t>2021-10-05 14:22:48.100283</t>
         </is>
       </c>
     </row>
@@ -7596,7 +7597,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693870</t>
+          <t>2021-10-05 14:22:48.100285</t>
         </is>
       </c>
     </row>
@@ -7626,7 +7627,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693873</t>
+          <t>2021-10-05 14:22:48.100287</t>
         </is>
       </c>
     </row>
@@ -7656,7 +7657,7 @@
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693875</t>
+          <t>2021-10-05 14:22:48.100290</t>
         </is>
       </c>
     </row>
@@ -7686,7 +7687,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693878</t>
+          <t>2021-10-05 14:22:48.100292</t>
         </is>
       </c>
     </row>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693880</t>
+          <t>2021-10-05 14:22:48.100295</t>
         </is>
       </c>
     </row>
@@ -7746,7 +7747,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693883</t>
+          <t>2021-10-05 14:22:48.100297</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7777,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693885</t>
+          <t>2021-10-05 14:22:48.100300</t>
         </is>
       </c>
     </row>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693888</t>
+          <t>2021-10-05 14:22:48.100302</t>
         </is>
       </c>
     </row>
@@ -7836,7 +7837,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693891</t>
+          <t>2021-10-05 14:22:48.100305</t>
         </is>
       </c>
     </row>
@@ -7866,7 +7867,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693893</t>
+          <t>2021-10-05 14:22:48.100307</t>
         </is>
       </c>
     </row>
@@ -7896,7 +7897,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693896</t>
+          <t>2021-10-05 14:22:48.100310</t>
         </is>
       </c>
     </row>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693899</t>
+          <t>2021-10-05 14:22:48.100312</t>
         </is>
       </c>
     </row>
@@ -7956,7 +7957,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693901</t>
+          <t>2021-10-05 14:22:48.100315</t>
         </is>
       </c>
     </row>
@@ -7986,7 +7987,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693904</t>
+          <t>2021-10-05 14:22:48.100317</t>
         </is>
       </c>
     </row>
@@ -8016,7 +8017,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693907</t>
+          <t>2021-10-05 14:22:48.100319</t>
         </is>
       </c>
     </row>
@@ -8046,7 +8047,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693909</t>
+          <t>2021-10-05 14:22:48.100322</t>
         </is>
       </c>
     </row>
@@ -8076,7 +8077,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693912</t>
+          <t>2021-10-05 14:22:48.100324</t>
         </is>
       </c>
     </row>
@@ -8106,7 +8107,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693915</t>
+          <t>2021-10-05 14:22:48.100327</t>
         </is>
       </c>
     </row>
@@ -8136,7 +8137,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693918</t>
+          <t>2021-10-05 14:22:48.100329</t>
         </is>
       </c>
     </row>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693920</t>
+          <t>2021-10-05 14:22:48.100332</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8197,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693923</t>
+          <t>2021-10-05 14:22:48.100334</t>
         </is>
       </c>
     </row>
@@ -8226,7 +8227,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693925</t>
+          <t>2021-10-05 14:22:48.100337</t>
         </is>
       </c>
     </row>
@@ -8256,7 +8257,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693928</t>
+          <t>2021-10-05 14:22:48.100339</t>
         </is>
       </c>
     </row>
@@ -8286,7 +8287,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693931</t>
+          <t>2021-10-05 14:22:48.100342</t>
         </is>
       </c>
     </row>
@@ -8316,7 +8317,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693934</t>
+          <t>2021-10-05 14:22:48.100344</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8347,7 @@
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693936</t>
+          <t>2021-10-05 14:22:48.100347</t>
         </is>
       </c>
     </row>
@@ -8376,7 +8377,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693939</t>
+          <t>2021-10-05 14:22:48.100349</t>
         </is>
       </c>
     </row>
@@ -8406,7 +8407,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693942</t>
+          <t>2021-10-05 14:22:48.100351</t>
         </is>
       </c>
     </row>
@@ -8436,7 +8437,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693944</t>
+          <t>2021-10-05 14:22:48.100354</t>
         </is>
       </c>
     </row>
@@ -8466,7 +8467,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693947</t>
+          <t>2021-10-05 14:22:48.100356</t>
         </is>
       </c>
     </row>
@@ -8496,7 +8497,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693950</t>
+          <t>2021-10-05 14:22:48.100359</t>
         </is>
       </c>
     </row>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693953</t>
+          <t>2021-10-05 14:22:48.100362</t>
         </is>
       </c>
     </row>
@@ -8556,7 +8557,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693956</t>
+          <t>2021-10-05 14:22:48.100364</t>
         </is>
       </c>
     </row>
@@ -8586,7 +8587,7 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693959</t>
+          <t>2021-10-05 14:22:48.100367</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8617,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693961</t>
+          <t>2021-10-05 14:22:48.100369</t>
         </is>
       </c>
     </row>
@@ -8646,7 +8647,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693964</t>
+          <t>2021-10-05 14:22:48.100372</t>
         </is>
       </c>
     </row>
@@ -8676,7 +8677,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693966</t>
+          <t>2021-10-05 14:22:48.100374</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8707,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693969</t>
+          <t>2021-10-05 14:22:48.100376</t>
         </is>
       </c>
     </row>
@@ -8736,7 +8737,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693972</t>
+          <t>2021-10-05 14:22:48.100379</t>
         </is>
       </c>
     </row>
@@ -8766,7 +8767,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693974</t>
+          <t>2021-10-05 14:22:48.100381</t>
         </is>
       </c>
     </row>
@@ -8796,7 +8797,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693977</t>
+          <t>2021-10-05 14:22:48.100384</t>
         </is>
       </c>
     </row>
@@ -8826,7 +8827,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693980</t>
+          <t>2021-10-05 14:22:48.100386</t>
         </is>
       </c>
     </row>
@@ -8856,7 +8857,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693982</t>
+          <t>2021-10-05 14:22:48.100389</t>
         </is>
       </c>
     </row>
@@ -8886,7 +8887,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693985</t>
+          <t>2021-10-05 14:22:48.100391</t>
         </is>
       </c>
     </row>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693988</t>
+          <t>2021-10-05 14:22:48.100393</t>
         </is>
       </c>
     </row>
@@ -8946,7 +8947,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693990</t>
+          <t>2021-10-05 14:22:48.100396</t>
         </is>
       </c>
     </row>
@@ -8976,7 +8977,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693993</t>
+          <t>2021-10-05 14:22:48.100398</t>
         </is>
       </c>
     </row>
@@ -9006,7 +9007,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693996</t>
+          <t>2021-10-05 14:22:48.100401</t>
         </is>
       </c>
     </row>
@@ -9036,7 +9037,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.693998</t>
+          <t>2021-10-05 14:22:48.100403</t>
         </is>
       </c>
     </row>
@@ -9066,7 +9067,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694001</t>
+          <t>2021-10-05 14:22:48.100406</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9097,7 @@
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694003</t>
+          <t>2021-10-05 14:22:48.100408</t>
         </is>
       </c>
     </row>
@@ -9126,7 +9127,7 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694006</t>
+          <t>2021-10-05 14:22:48.100410</t>
         </is>
       </c>
     </row>
@@ -9156,7 +9157,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694008</t>
+          <t>2021-10-05 14:22:48.100413</t>
         </is>
       </c>
     </row>
@@ -9186,7 +9187,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694011</t>
+          <t>2021-10-05 14:22:48.100415</t>
         </is>
       </c>
     </row>
@@ -9216,7 +9217,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694013</t>
+          <t>2021-10-05 14:22:48.100418</t>
         </is>
       </c>
     </row>
@@ -9246,7 +9247,7 @@
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694016</t>
+          <t>2021-10-05 14:22:48.100420</t>
         </is>
       </c>
     </row>
@@ -9276,7 +9277,7 @@
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694019</t>
+          <t>2021-10-05 14:22:48.100423</t>
         </is>
       </c>
     </row>
@@ -9306,7 +9307,7 @@
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694021</t>
+          <t>2021-10-05 14:22:48.100425</t>
         </is>
       </c>
     </row>
@@ -9336,7 +9337,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694024</t>
+          <t>2021-10-05 14:22:48.100428</t>
         </is>
       </c>
     </row>
@@ -9366,7 +9367,7 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694027</t>
+          <t>2021-10-05 14:22:48.100430</t>
         </is>
       </c>
     </row>
@@ -9396,7 +9397,7 @@
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694029</t>
+          <t>2021-10-05 14:22:48.100433</t>
         </is>
       </c>
     </row>
@@ -9426,7 +9427,7 @@
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694032</t>
+          <t>2021-10-05 14:22:48.100435</t>
         </is>
       </c>
     </row>
@@ -9456,7 +9457,7 @@
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694034</t>
+          <t>2021-10-05 14:22:48.100437</t>
         </is>
       </c>
     </row>
@@ -9486,7 +9487,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694037</t>
+          <t>2021-10-05 14:22:48.100440</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9517,7 @@
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694040</t>
+          <t>2021-10-05 14:22:48.100442</t>
         </is>
       </c>
     </row>
@@ -9546,7 +9547,7 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694042</t>
+          <t>2021-10-05 14:22:48.100445</t>
         </is>
       </c>
     </row>
@@ -9576,7 +9577,7 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694045</t>
+          <t>2021-10-05 14:22:48.100447</t>
         </is>
       </c>
     </row>
@@ -9606,7 +9607,7 @@
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694047</t>
+          <t>2021-10-05 14:22:48.100450</t>
         </is>
       </c>
     </row>
@@ -9636,7 +9637,7 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694050</t>
+          <t>2021-10-05 14:22:48.100452</t>
         </is>
       </c>
     </row>
@@ -9666,7 +9667,7 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694053</t>
+          <t>2021-10-05 14:22:48.100454</t>
         </is>
       </c>
     </row>
@@ -9696,7 +9697,7 @@
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694055</t>
+          <t>2021-10-05 14:22:48.100457</t>
         </is>
       </c>
     </row>
@@ -9726,7 +9727,7 @@
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694059</t>
+          <t>2021-10-05 14:22:48.100461</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9757,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694063</t>
+          <t>2021-10-05 14:22:48.100464</t>
         </is>
       </c>
     </row>
@@ -9786,7 +9787,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694065</t>
+          <t>2021-10-05 14:22:48.100466</t>
         </is>
       </c>
     </row>
@@ -9816,7 +9817,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694068</t>
+          <t>2021-10-05 14:22:48.100469</t>
         </is>
       </c>
     </row>
@@ -9846,7 +9847,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694070</t>
+          <t>2021-10-05 14:22:48.100471</t>
         </is>
       </c>
     </row>
@@ -9876,7 +9877,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694073</t>
+          <t>2021-10-05 14:22:48.100474</t>
         </is>
       </c>
     </row>
@@ -9906,7 +9907,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694076</t>
+          <t>2021-10-05 14:22:48.100476</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694078</t>
+          <t>2021-10-05 14:22:48.100478</t>
         </is>
       </c>
     </row>
@@ -9966,7 +9967,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694081</t>
+          <t>2021-10-05 14:22:48.100481</t>
         </is>
       </c>
     </row>
@@ -9996,7 +9997,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694083</t>
+          <t>2021-10-05 14:22:48.100483</t>
         </is>
       </c>
     </row>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694086</t>
+          <t>2021-10-05 14:22:48.100486</t>
         </is>
       </c>
     </row>
@@ -10056,7 +10057,7 @@
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694089</t>
+          <t>2021-10-05 14:22:48.100488</t>
         </is>
       </c>
     </row>
@@ -10086,7 +10087,7 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694092</t>
+          <t>2021-10-05 14:22:48.100491</t>
         </is>
       </c>
     </row>
@@ -10116,7 +10117,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694094</t>
+          <t>2021-10-05 14:22:48.100493</t>
         </is>
       </c>
     </row>
@@ -10146,7 +10147,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694097</t>
+          <t>2021-10-05 14:22:48.100496</t>
         </is>
       </c>
     </row>
@@ -10176,7 +10177,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694099</t>
+          <t>2021-10-05 14:22:48.100498</t>
         </is>
       </c>
     </row>
@@ -10206,7 +10207,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694102</t>
+          <t>2021-10-05 14:22:48.100500</t>
         </is>
       </c>
     </row>
@@ -10236,7 +10237,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694104</t>
+          <t>2021-10-05 14:22:48.100503</t>
         </is>
       </c>
     </row>
@@ -10266,7 +10267,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694107</t>
+          <t>2021-10-05 14:22:48.100505</t>
         </is>
       </c>
     </row>
@@ -10296,7 +10297,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694110</t>
+          <t>2021-10-05 14:22:48.100508</t>
         </is>
       </c>
     </row>
@@ -10326,7 +10327,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694112</t>
+          <t>2021-10-05 14:22:48.100510</t>
         </is>
       </c>
     </row>
@@ -10356,7 +10357,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694115</t>
+          <t>2021-10-05 14:22:48.100513</t>
         </is>
       </c>
     </row>
@@ -10386,7 +10387,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694117</t>
+          <t>2021-10-05 14:22:48.100515</t>
         </is>
       </c>
     </row>
@@ -10416,7 +10417,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694120</t>
+          <t>2021-10-05 14:22:48.100518</t>
         </is>
       </c>
     </row>
@@ -10446,7 +10447,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694122</t>
+          <t>2021-10-05 14:22:48.100520</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10477,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694125</t>
+          <t>2021-10-05 14:22:48.100523</t>
         </is>
       </c>
     </row>
@@ -10506,7 +10507,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694127</t>
+          <t>2021-10-05 14:22:48.100525</t>
         </is>
       </c>
     </row>
@@ -10536,7 +10537,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694130</t>
+          <t>2021-10-05 14:22:48.100528</t>
         </is>
       </c>
     </row>
@@ -10566,7 +10567,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694133</t>
+          <t>2021-10-05 14:22:48.100530</t>
         </is>
       </c>
     </row>
@@ -10596,7 +10597,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694135</t>
+          <t>2021-10-05 14:22:48.100532</t>
         </is>
       </c>
     </row>
@@ -10626,7 +10627,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694138</t>
+          <t>2021-10-05 14:22:48.100535</t>
         </is>
       </c>
     </row>
@@ -10656,7 +10657,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694140</t>
+          <t>2021-10-05 14:22:48.100537</t>
         </is>
       </c>
     </row>
@@ -10686,7 +10687,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694143</t>
+          <t>2021-10-05 14:22:48.100540</t>
         </is>
       </c>
     </row>
@@ -10716,7 +10717,7 @@
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694146</t>
+          <t>2021-10-05 14:22:48.100542</t>
         </is>
       </c>
     </row>
@@ -10746,7 +10747,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694148</t>
+          <t>2021-10-05 14:22:48.100545</t>
         </is>
       </c>
     </row>
@@ -10776,7 +10777,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694151</t>
+          <t>2021-10-05 14:22:48.100547</t>
         </is>
       </c>
     </row>
@@ -10806,7 +10807,7 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694154</t>
+          <t>2021-10-05 14:22:48.100549</t>
         </is>
       </c>
     </row>
@@ -10836,7 +10837,7 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694156</t>
+          <t>2021-10-05 14:22:48.100552</t>
         </is>
       </c>
     </row>
@@ -10866,7 +10867,7 @@
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694159</t>
+          <t>2021-10-05 14:22:48.100554</t>
         </is>
       </c>
     </row>
@@ -10896,7 +10897,7 @@
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694161</t>
+          <t>2021-10-05 14:22:48.100557</t>
         </is>
       </c>
     </row>
@@ -10926,7 +10927,7 @@
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694164</t>
+          <t>2021-10-05 14:22:48.100559</t>
         </is>
       </c>
     </row>
@@ -10956,7 +10957,7 @@
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694166</t>
+          <t>2021-10-05 14:22:48.100561</t>
         </is>
       </c>
     </row>
@@ -10986,7 +10987,7 @@
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694169</t>
+          <t>2021-10-05 14:22:48.100564</t>
         </is>
       </c>
     </row>
@@ -11016,7 +11017,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694172</t>
+          <t>2021-10-05 14:22:48.100566</t>
         </is>
       </c>
     </row>
@@ -11046,7 +11047,7 @@
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694176</t>
+          <t>2021-10-05 14:22:48.100570</t>
         </is>
       </c>
     </row>
@@ -11076,7 +11077,7 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694179</t>
+          <t>2021-10-05 14:22:48.100574</t>
         </is>
       </c>
     </row>
@@ -11106,7 +11107,7 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694182</t>
+          <t>2021-10-05 14:22:48.100576</t>
         </is>
       </c>
     </row>
@@ -11136,7 +11137,7 @@
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694184</t>
+          <t>2021-10-05 14:22:48.100579</t>
         </is>
       </c>
     </row>
@@ -11166,7 +11167,7 @@
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694187</t>
+          <t>2021-10-05 14:22:48.100581</t>
         </is>
       </c>
     </row>
@@ -11196,7 +11197,7 @@
       </c>
       <c r="F359" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694190</t>
+          <t>2021-10-05 14:22:48.100584</t>
         </is>
       </c>
     </row>
@@ -11226,7 +11227,7 @@
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694193</t>
+          <t>2021-10-05 14:22:48.100586</t>
         </is>
       </c>
     </row>
@@ -11256,7 +11257,7 @@
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694195</t>
+          <t>2021-10-05 14:22:48.100589</t>
         </is>
       </c>
     </row>
@@ -11286,7 +11287,7 @@
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694198</t>
+          <t>2021-10-05 14:22:48.100591</t>
         </is>
       </c>
     </row>
@@ -11316,7 +11317,7 @@
       </c>
       <c r="F363" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694200</t>
+          <t>2021-10-05 14:22:48.100593</t>
         </is>
       </c>
     </row>
@@ -11346,7 +11347,7 @@
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694203</t>
+          <t>2021-10-05 14:22:48.100596</t>
         </is>
       </c>
     </row>
@@ -11376,7 +11377,7 @@
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694206</t>
+          <t>2021-10-05 14:22:48.100598</t>
         </is>
       </c>
     </row>
@@ -11406,7 +11407,7 @@
       </c>
       <c r="F366" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694208</t>
+          <t>2021-10-05 14:22:48.100601</t>
         </is>
       </c>
     </row>
@@ -11436,7 +11437,7 @@
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694211</t>
+          <t>2021-10-05 14:22:48.100603</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11467,7 @@
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694213</t>
+          <t>2021-10-05 14:22:48.100606</t>
         </is>
       </c>
     </row>
@@ -11496,7 +11497,7 @@
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694216</t>
+          <t>2021-10-05 14:22:48.100608</t>
         </is>
       </c>
     </row>
@@ -11526,7 +11527,7 @@
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694219</t>
+          <t>2021-10-05 14:22:48.100611</t>
         </is>
       </c>
     </row>
@@ -11556,7 +11557,7 @@
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694221</t>
+          <t>2021-10-05 14:22:48.100613</t>
         </is>
       </c>
     </row>
@@ -11586,7 +11587,7 @@
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694224</t>
+          <t>2021-10-05 14:22:48.100615</t>
         </is>
       </c>
     </row>
@@ -11616,7 +11617,7 @@
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694226</t>
+          <t>2021-10-05 14:22:48.100618</t>
         </is>
       </c>
     </row>
@@ -11646,7 +11647,7 @@
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694229</t>
+          <t>2021-10-05 14:22:48.100620</t>
         </is>
       </c>
     </row>
@@ -11676,7 +11677,7 @@
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694231</t>
+          <t>2021-10-05 14:22:48.100623</t>
         </is>
       </c>
     </row>
@@ -11706,7 +11707,7 @@
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694234</t>
+          <t>2021-10-05 14:22:48.100625</t>
         </is>
       </c>
     </row>
@@ -11736,7 +11737,7 @@
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694236</t>
+          <t>2021-10-05 14:22:48.100628</t>
         </is>
       </c>
     </row>
@@ -11766,7 +11767,7 @@
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694239</t>
+          <t>2021-10-05 14:22:48.100630</t>
         </is>
       </c>
     </row>
@@ -11796,7 +11797,7 @@
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694242</t>
+          <t>2021-10-05 14:22:48.100633</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11827,7 @@
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694245</t>
+          <t>2021-10-05 14:22:48.100635</t>
         </is>
       </c>
     </row>
@@ -11856,7 +11857,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694247</t>
+          <t>2021-10-05 14:22:48.100638</t>
         </is>
       </c>
     </row>
@@ -11886,7 +11887,7 @@
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694250</t>
+          <t>2021-10-05 14:22:48.100640</t>
         </is>
       </c>
     </row>
@@ -11916,7 +11917,7 @@
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694252</t>
+          <t>2021-10-05 14:22:48.100642</t>
         </is>
       </c>
     </row>
@@ -11946,7 +11947,7 @@
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694255</t>
+          <t>2021-10-05 14:22:48.100645</t>
         </is>
       </c>
     </row>
@@ -11976,7 +11977,7 @@
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694257</t>
+          <t>2021-10-05 14:22:48.100647</t>
         </is>
       </c>
     </row>
@@ -12006,7 +12007,7 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694260</t>
+          <t>2021-10-05 14:22:48.100650</t>
         </is>
       </c>
     </row>
@@ -12036,7 +12037,7 @@
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694263</t>
+          <t>2021-10-05 14:22:48.100652</t>
         </is>
       </c>
     </row>
@@ -12066,7 +12067,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694265</t>
+          <t>2021-10-05 14:22:48.100655</t>
         </is>
       </c>
     </row>
@@ -12096,7 +12097,7 @@
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694268</t>
+          <t>2021-10-05 14:22:48.100657</t>
         </is>
       </c>
     </row>
@@ -12126,7 +12127,7 @@
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694270</t>
+          <t>2021-10-05 14:22:48.100660</t>
         </is>
       </c>
     </row>
@@ -12156,7 +12157,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694273</t>
+          <t>2021-10-05 14:22:48.100662</t>
         </is>
       </c>
     </row>
@@ -12186,7 +12187,7 @@
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694275</t>
+          <t>2021-10-05 14:22:48.100664</t>
         </is>
       </c>
     </row>
@@ -12216,7 +12217,7 @@
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694278</t>
+          <t>2021-10-05 14:22:48.100667</t>
         </is>
       </c>
     </row>
@@ -12246,7 +12247,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694281</t>
+          <t>2021-10-05 14:22:48.100669</t>
         </is>
       </c>
     </row>
@@ -12276,7 +12277,7 @@
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694283</t>
+          <t>2021-10-05 14:22:48.100672</t>
         </is>
       </c>
     </row>
@@ -12306,7 +12307,7 @@
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694286</t>
+          <t>2021-10-05 14:22:48.100674</t>
         </is>
       </c>
     </row>
@@ -12336,7 +12337,7 @@
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694288</t>
+          <t>2021-10-05 14:22:48.100677</t>
         </is>
       </c>
     </row>
@@ -12366,7 +12367,7 @@
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694291</t>
+          <t>2021-10-05 14:22:48.100679</t>
         </is>
       </c>
     </row>
@@ -12396,7 +12397,7 @@
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694293</t>
+          <t>2021-10-05 14:22:48.100681</t>
         </is>
       </c>
     </row>
@@ -12426,7 +12427,7 @@
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694296</t>
+          <t>2021-10-05 14:22:48.100684</t>
         </is>
       </c>
     </row>
@@ -12456,7 +12457,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694299</t>
+          <t>2021-10-05 14:22:48.100686</t>
         </is>
       </c>
     </row>
@@ -12486,7 +12487,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694302</t>
+          <t>2021-10-05 14:22:48.100690</t>
         </is>
       </c>
     </row>
@@ -12516,7 +12517,7 @@
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694305</t>
+          <t>2021-10-05 14:22:48.100693</t>
         </is>
       </c>
     </row>
@@ -12546,7 +12547,7 @@
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694308</t>
+          <t>2021-10-05 14:22:48.100696</t>
         </is>
       </c>
     </row>
@@ -12576,7 +12577,7 @@
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694310</t>
+          <t>2021-10-05 14:22:48.100698</t>
         </is>
       </c>
     </row>
@@ -12606,7 +12607,7 @@
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694313</t>
+          <t>2021-10-05 14:22:48.100701</t>
         </is>
       </c>
     </row>
@@ -12636,7 +12637,7 @@
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694315</t>
+          <t>2021-10-05 14:22:48.100703</t>
         </is>
       </c>
     </row>
@@ -12666,7 +12667,7 @@
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694318</t>
+          <t>2021-10-05 14:22:48.100706</t>
         </is>
       </c>
     </row>
@@ -12696,7 +12697,7 @@
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694320</t>
+          <t>2021-10-05 14:22:48.100708</t>
         </is>
       </c>
     </row>
@@ -12726,7 +12727,7 @@
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694323</t>
+          <t>2021-10-05 14:22:48.100711</t>
         </is>
       </c>
     </row>
@@ -12756,7 +12757,7 @@
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694326</t>
+          <t>2021-10-05 14:22:48.100713</t>
         </is>
       </c>
     </row>
@@ -12786,7 +12787,7 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694328</t>
+          <t>2021-10-05 14:22:48.100716</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12817,7 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694331</t>
+          <t>2021-10-05 14:22:48.100718</t>
         </is>
       </c>
     </row>
@@ -12846,7 +12847,7 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694333</t>
+          <t>2021-10-05 14:22:48.100720</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12877,7 @@
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694336</t>
+          <t>2021-10-05 14:22:48.100723</t>
         </is>
       </c>
     </row>
@@ -12906,7 +12907,7 @@
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694339</t>
+          <t>2021-10-05 14:22:48.100725</t>
         </is>
       </c>
     </row>
@@ -12936,7 +12937,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694341</t>
+          <t>2021-10-05 14:22:48.100728</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12967,7 @@
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694344</t>
+          <t>2021-10-05 14:22:48.100730</t>
         </is>
       </c>
     </row>
@@ -12996,7 +12997,7 @@
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694346</t>
+          <t>2021-10-05 14:22:48.100733</t>
         </is>
       </c>
     </row>
@@ -13026,7 +13027,7 @@
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694349</t>
+          <t>2021-10-05 14:22:48.100735</t>
         </is>
       </c>
     </row>
@@ -13056,7 +13057,7 @@
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694352</t>
+          <t>2021-10-05 14:22:48.100738</t>
         </is>
       </c>
     </row>
@@ -13086,7 +13087,7 @@
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694354</t>
+          <t>2021-10-05 14:22:48.100740</t>
         </is>
       </c>
     </row>
@@ -13116,7 +13117,7 @@
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694357</t>
+          <t>2021-10-05 14:22:48.100742</t>
         </is>
       </c>
     </row>
@@ -13146,7 +13147,7 @@
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694359</t>
+          <t>2021-10-05 14:22:48.100745</t>
         </is>
       </c>
     </row>
@@ -13176,7 +13177,7 @@
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694362</t>
+          <t>2021-10-05 14:22:48.100747</t>
         </is>
       </c>
     </row>
@@ -13206,7 +13207,7 @@
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694364</t>
+          <t>2021-10-05 14:22:48.100750</t>
         </is>
       </c>
     </row>
@@ -13236,7 +13237,7 @@
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694367</t>
+          <t>2021-10-05 14:22:48.100752</t>
         </is>
       </c>
     </row>
@@ -13266,7 +13267,7 @@
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694370</t>
+          <t>2021-10-05 14:22:48.100755</t>
         </is>
       </c>
     </row>
@@ -13296,7 +13297,7 @@
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694372</t>
+          <t>2021-10-05 14:22:48.100757</t>
         </is>
       </c>
     </row>
@@ -13326,7 +13327,7 @@
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694375</t>
+          <t>2021-10-05 14:22:48.100760</t>
         </is>
       </c>
     </row>
@@ -13356,7 +13357,7 @@
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694378</t>
+          <t>2021-10-05 14:22:48.100762</t>
         </is>
       </c>
     </row>
@@ -13386,7 +13387,7 @@
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694380</t>
+          <t>2021-10-05 14:22:48.100764</t>
         </is>
       </c>
     </row>
@@ -13416,7 +13417,7 @@
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694383</t>
+          <t>2021-10-05 14:22:48.100767</t>
         </is>
       </c>
     </row>
@@ -13446,7 +13447,7 @@
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694386</t>
+          <t>2021-10-05 14:22:48.100769</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13477,7 @@
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694388</t>
+          <t>2021-10-05 14:22:48.100772</t>
         </is>
       </c>
     </row>
@@ -13506,7 +13507,7 @@
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694391</t>
+          <t>2021-10-05 14:22:48.100774</t>
         </is>
       </c>
     </row>
@@ -13536,7 +13537,7 @@
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694394</t>
+          <t>2021-10-05 14:22:48.100777</t>
         </is>
       </c>
     </row>
@@ -13566,7 +13567,7 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694396</t>
+          <t>2021-10-05 14:22:48.100780</t>
         </is>
       </c>
     </row>
@@ -13596,7 +13597,7 @@
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694399</t>
+          <t>2021-10-05 14:22:48.100782</t>
         </is>
       </c>
     </row>
@@ -13626,7 +13627,7 @@
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694401</t>
+          <t>2021-10-05 14:22:48.100785</t>
         </is>
       </c>
     </row>
@@ -13656,7 +13657,7 @@
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694404</t>
+          <t>2021-10-05 14:22:48.100787</t>
         </is>
       </c>
     </row>
@@ -13686,7 +13687,7 @@
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694406</t>
+          <t>2021-10-05 14:22:48.100790</t>
         </is>
       </c>
     </row>
@@ -13716,7 +13717,7 @@
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694409</t>
+          <t>2021-10-05 14:22:48.100792</t>
         </is>
       </c>
     </row>
@@ -13746,7 +13747,7 @@
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694411</t>
+          <t>2021-10-05 14:22:48.100795</t>
         </is>
       </c>
     </row>
@@ -13776,7 +13777,7 @@
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694414</t>
+          <t>2021-10-05 14:22:48.100797</t>
         </is>
       </c>
     </row>
@@ -13806,7 +13807,7 @@
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694417</t>
+          <t>2021-10-05 14:22:48.100800</t>
         </is>
       </c>
     </row>
@@ -13836,7 +13837,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694419</t>
+          <t>2021-10-05 14:22:48.100802</t>
         </is>
       </c>
     </row>
@@ -13866,7 +13867,7 @@
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694422</t>
+          <t>2021-10-05 14:22:48.100805</t>
         </is>
       </c>
     </row>
@@ -13896,7 +13897,7 @@
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694424</t>
+          <t>2021-10-05 14:22:48.100807</t>
         </is>
       </c>
     </row>
@@ -13926,7 +13927,7 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694427</t>
+          <t>2021-10-05 14:22:48.100809</t>
         </is>
       </c>
     </row>
@@ -13956,7 +13957,7 @@
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694429</t>
+          <t>2021-10-05 14:22:48.100812</t>
         </is>
       </c>
     </row>
@@ -13986,7 +13987,7 @@
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694432</t>
+          <t>2021-10-05 14:22:48.100814</t>
         </is>
       </c>
     </row>
@@ -14016,7 +14017,7 @@
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694434</t>
+          <t>2021-10-05 14:22:48.100817</t>
         </is>
       </c>
     </row>
@@ -14046,7 +14047,7 @@
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694437</t>
+          <t>2021-10-05 14:22:48.100819</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14077,7 @@
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694439</t>
+          <t>2021-10-05 14:22:48.100822</t>
         </is>
       </c>
     </row>
@@ -14106,7 +14107,7 @@
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694442</t>
+          <t>2021-10-05 14:22:48.100824</t>
         </is>
       </c>
     </row>
@@ -14136,7 +14137,7 @@
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694444</t>
+          <t>2021-10-05 14:22:48.100827</t>
         </is>
       </c>
     </row>
@@ -14166,7 +14167,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694448</t>
+          <t>2021-10-05 14:22:48.100831</t>
         </is>
       </c>
     </row>
@@ -14196,7 +14197,7 @@
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694451</t>
+          <t>2021-10-05 14:22:48.100834</t>
         </is>
       </c>
     </row>
@@ -14226,7 +14227,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694454</t>
+          <t>2021-10-05 14:22:48.100837</t>
         </is>
       </c>
     </row>
@@ -14256,7 +14257,7 @@
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694456</t>
+          <t>2021-10-05 14:22:48.100839</t>
         </is>
       </c>
     </row>
@@ -14286,7 +14287,7 @@
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694459</t>
+          <t>2021-10-05 14:22:48.100842</t>
         </is>
       </c>
     </row>
@@ -14316,7 +14317,7 @@
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694461</t>
+          <t>2021-10-05 14:22:48.100844</t>
         </is>
       </c>
     </row>
@@ -14346,7 +14347,7 @@
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694464</t>
+          <t>2021-10-05 14:22:48.100847</t>
         </is>
       </c>
     </row>
@@ -14376,7 +14377,7 @@
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694466</t>
+          <t>2021-10-05 14:22:48.100849</t>
         </is>
       </c>
     </row>
@@ -14406,7 +14407,7 @@
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694469</t>
+          <t>2021-10-05 14:22:48.100852</t>
         </is>
       </c>
     </row>
@@ -14436,7 +14437,7 @@
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694471</t>
+          <t>2021-10-05 14:22:48.100854</t>
         </is>
       </c>
     </row>
@@ -14466,7 +14467,7 @@
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694474</t>
+          <t>2021-10-05 14:22:48.100857</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14497,7 @@
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694476</t>
+          <t>2021-10-05 14:22:48.100859</t>
         </is>
       </c>
     </row>
@@ -14526,7 +14527,7 @@
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694479</t>
+          <t>2021-10-05 14:22:48.100862</t>
         </is>
       </c>
     </row>
@@ -14556,7 +14557,7 @@
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694481</t>
+          <t>2021-10-05 14:22:48.100864</t>
         </is>
       </c>
     </row>
@@ -14586,7 +14587,7 @@
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694484</t>
+          <t>2021-10-05 14:22:48.100867</t>
         </is>
       </c>
     </row>
@@ -14616,7 +14617,7 @@
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694487</t>
+          <t>2021-10-05 14:22:48.100869</t>
         </is>
       </c>
     </row>
@@ -14646,7 +14647,7 @@
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694489</t>
+          <t>2021-10-05 14:22:48.100872</t>
         </is>
       </c>
     </row>
@@ -14676,7 +14677,7 @@
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694492</t>
+          <t>2021-10-05 14:22:48.100874</t>
         </is>
       </c>
     </row>
@@ -14706,7 +14707,7 @@
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694494</t>
+          <t>2021-10-05 14:22:48.100877</t>
         </is>
       </c>
     </row>
@@ -14736,7 +14737,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694497</t>
+          <t>2021-10-05 14:22:48.100879</t>
         </is>
       </c>
     </row>
@@ -14766,7 +14767,7 @@
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694499</t>
+          <t>2021-10-05 14:22:48.100881</t>
         </is>
       </c>
     </row>
@@ -14796,7 +14797,7 @@
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694502</t>
+          <t>2021-10-05 14:22:48.100884</t>
         </is>
       </c>
     </row>
@@ -14826,7 +14827,7 @@
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694504</t>
+          <t>2021-10-05 14:22:48.100886</t>
         </is>
       </c>
     </row>
@@ -14856,7 +14857,7 @@
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694507</t>
+          <t>2021-10-05 14:22:48.100889</t>
         </is>
       </c>
     </row>
@@ -14886,7 +14887,7 @@
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694509</t>
+          <t>2021-10-05 14:22:48.100891</t>
         </is>
       </c>
     </row>
@@ -14916,7 +14917,7 @@
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694512</t>
+          <t>2021-10-05 14:22:48.100894</t>
         </is>
       </c>
     </row>
@@ -14946,7 +14947,7 @@
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694514</t>
+          <t>2021-10-05 14:22:48.100896</t>
         </is>
       </c>
     </row>
@@ -14976,7 +14977,7 @@
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694517</t>
+          <t>2021-10-05 14:22:48.100899</t>
         </is>
       </c>
     </row>
@@ -15006,7 +15007,7 @@
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694519</t>
+          <t>2021-10-05 14:22:48.100901</t>
         </is>
       </c>
     </row>
@@ -15036,7 +15037,7 @@
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694522</t>
+          <t>2021-10-05 14:22:48.100904</t>
         </is>
       </c>
     </row>
@@ -15066,7 +15067,7 @@
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694524</t>
+          <t>2021-10-05 14:22:48.100906</t>
         </is>
       </c>
     </row>
@@ -15096,7 +15097,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694527</t>
+          <t>2021-10-05 14:22:48.100908</t>
         </is>
       </c>
     </row>
@@ -15126,7 +15127,7 @@
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694529</t>
+          <t>2021-10-05 14:22:48.100911</t>
         </is>
       </c>
     </row>
@@ -15156,7 +15157,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694532</t>
+          <t>2021-10-05 14:22:48.100913</t>
         </is>
       </c>
     </row>
@@ -15186,7 +15187,7 @@
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694534</t>
+          <t>2021-10-05 14:22:48.100916</t>
         </is>
       </c>
     </row>
@@ -15216,7 +15217,7 @@
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694537</t>
+          <t>2021-10-05 14:22:48.100918</t>
         </is>
       </c>
     </row>
@@ -15246,7 +15247,7 @@
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694539</t>
+          <t>2021-10-05 14:22:48.100921</t>
         </is>
       </c>
     </row>
@@ -15276,7 +15277,7 @@
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694541</t>
+          <t>2021-10-05 14:22:48.100923</t>
         </is>
       </c>
     </row>
@@ -15306,7 +15307,7 @@
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694544</t>
+          <t>2021-10-05 14:22:48.100926</t>
         </is>
       </c>
     </row>
@@ -15336,7 +15337,7 @@
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694546</t>
+          <t>2021-10-05 14:22:48.100928</t>
         </is>
       </c>
     </row>
@@ -15366,7 +15367,7 @@
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694549</t>
+          <t>2021-10-05 14:22:48.100931</t>
         </is>
       </c>
     </row>
@@ -15396,7 +15397,7 @@
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694551</t>
+          <t>2021-10-05 14:22:48.100933</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15427,7 @@
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694554</t>
+          <t>2021-10-05 14:22:48.100936</t>
         </is>
       </c>
     </row>
@@ -15456,7 +15457,7 @@
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694556</t>
+          <t>2021-10-05 14:22:48.100939</t>
         </is>
       </c>
     </row>
@@ -15486,7 +15487,7 @@
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694559</t>
+          <t>2021-10-05 14:22:48.100941</t>
         </is>
       </c>
     </row>
@@ -15516,7 +15517,7 @@
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694562</t>
+          <t>2021-10-05 14:22:48.100944</t>
         </is>
       </c>
     </row>
@@ -15546,7 +15547,7 @@
       </c>
       <c r="F504" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694564</t>
+          <t>2021-10-05 14:22:48.100946</t>
         </is>
       </c>
     </row>
@@ -15576,7 +15577,7 @@
       </c>
       <c r="F505" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694567</t>
+          <t>2021-10-05 14:22:48.100949</t>
         </is>
       </c>
     </row>
@@ -15606,7 +15607,7 @@
       </c>
       <c r="F506" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694569</t>
+          <t>2021-10-05 14:22:48.100951</t>
         </is>
       </c>
     </row>
@@ -15636,7 +15637,7 @@
       </c>
       <c r="F507" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694572</t>
+          <t>2021-10-05 14:22:48.100954</t>
         </is>
       </c>
     </row>
@@ -15666,7 +15667,7 @@
       </c>
       <c r="F508" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694574</t>
+          <t>2021-10-05 14:22:48.100956</t>
         </is>
       </c>
     </row>
@@ -15696,7 +15697,7 @@
       </c>
       <c r="F509" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694577</t>
+          <t>2021-10-05 14:22:48.100958</t>
         </is>
       </c>
     </row>
@@ -15726,7 +15727,7 @@
       </c>
       <c r="F510" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694579</t>
+          <t>2021-10-05 14:22:48.100961</t>
         </is>
       </c>
     </row>
@@ -15756,7 +15757,7 @@
       </c>
       <c r="F511" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694582</t>
+          <t>2021-10-05 14:22:48.100963</t>
         </is>
       </c>
     </row>
@@ -15786,7 +15787,7 @@
       </c>
       <c r="F512" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694584</t>
+          <t>2021-10-05 14:22:48.100966</t>
         </is>
       </c>
     </row>
@@ -15816,7 +15817,7 @@
       </c>
       <c r="F513" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694587</t>
+          <t>2021-10-05 14:22:48.100968</t>
         </is>
       </c>
     </row>
@@ -15846,7 +15847,7 @@
       </c>
       <c r="F514" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694589</t>
+          <t>2021-10-05 14:22:48.100971</t>
         </is>
       </c>
     </row>
@@ -15876,7 +15877,7 @@
       </c>
       <c r="F515" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694592</t>
+          <t>2021-10-05 14:22:48.100973</t>
         </is>
       </c>
     </row>
@@ -15906,7 +15907,7 @@
       </c>
       <c r="F516" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694594</t>
+          <t>2021-10-05 14:22:48.100976</t>
         </is>
       </c>
     </row>
@@ -15936,7 +15937,7 @@
       </c>
       <c r="F517" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694597</t>
+          <t>2021-10-05 14:22:48.100978</t>
         </is>
       </c>
     </row>
@@ -15966,7 +15967,7 @@
       </c>
       <c r="F518" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694600</t>
+          <t>2021-10-05 14:22:48.100981</t>
         </is>
       </c>
     </row>
@@ -15996,7 +15997,7 @@
       </c>
       <c r="F519" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694602</t>
+          <t>2021-10-05 14:22:48.100984</t>
         </is>
       </c>
     </row>
@@ -16026,7 +16027,7 @@
       </c>
       <c r="F520" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694605</t>
+          <t>2021-10-05 14:22:48.100986</t>
         </is>
       </c>
     </row>
@@ -16056,7 +16057,7 @@
       </c>
       <c r="F521" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694607</t>
+          <t>2021-10-05 14:22:48.100989</t>
         </is>
       </c>
     </row>
@@ -16086,7 +16087,7 @@
       </c>
       <c r="F522" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694611</t>
+          <t>2021-10-05 14:22:48.100993</t>
         </is>
       </c>
     </row>
@@ -16116,7 +16117,7 @@
       </c>
       <c r="F523" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694615</t>
+          <t>2021-10-05 14:22:48.100996</t>
         </is>
       </c>
     </row>
@@ -16146,7 +16147,7 @@
       </c>
       <c r="F524" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694618</t>
+          <t>2021-10-05 14:22:48.100998</t>
         </is>
       </c>
     </row>
@@ -16176,7 +16177,7 @@
       </c>
       <c r="F525" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694620</t>
+          <t>2021-10-05 14:22:48.101001</t>
         </is>
       </c>
     </row>
@@ -16206,7 +16207,7 @@
       </c>
       <c r="F526" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694623</t>
+          <t>2021-10-05 14:22:48.101003</t>
         </is>
       </c>
     </row>
@@ -16236,7 +16237,7 @@
       </c>
       <c r="F527" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694625</t>
+          <t>2021-10-05 14:22:48.101006</t>
         </is>
       </c>
     </row>
@@ -16266,7 +16267,7 @@
       </c>
       <c r="F528" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694628</t>
+          <t>2021-10-05 14:22:48.101008</t>
         </is>
       </c>
     </row>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="F529" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694630</t>
+          <t>2021-10-05 14:22:48.101011</t>
         </is>
       </c>
     </row>
@@ -16326,7 +16327,7 @@
       </c>
       <c r="F530" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694633</t>
+          <t>2021-10-05 14:22:48.101013</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16357,7 @@
       </c>
       <c r="F531" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694635</t>
+          <t>2021-10-05 14:22:48.101016</t>
         </is>
       </c>
     </row>
@@ -16386,7 +16387,7 @@
       </c>
       <c r="F532" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694638</t>
+          <t>2021-10-05 14:22:48.101018</t>
         </is>
       </c>
     </row>
@@ -16416,7 +16417,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694640</t>
+          <t>2021-10-05 14:22:48.101021</t>
         </is>
       </c>
     </row>
@@ -16446,7 +16447,7 @@
       </c>
       <c r="F534" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694643</t>
+          <t>2021-10-05 14:22:48.101023</t>
         </is>
       </c>
     </row>
@@ -16476,7 +16477,7 @@
       </c>
       <c r="F535" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694645</t>
+          <t>2021-10-05 14:22:48.101026</t>
         </is>
       </c>
     </row>
@@ -16506,7 +16507,7 @@
       </c>
       <c r="F536" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694648</t>
+          <t>2021-10-05 14:22:48.101028</t>
         </is>
       </c>
     </row>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="F537" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694650</t>
+          <t>2021-10-05 14:22:48.101031</t>
         </is>
       </c>
     </row>
@@ -16566,7 +16567,7 @@
       </c>
       <c r="F538" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694653</t>
+          <t>2021-10-05 14:22:48.101033</t>
         </is>
       </c>
     </row>
@@ -16596,7 +16597,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694655</t>
+          <t>2021-10-05 14:22:48.101036</t>
         </is>
       </c>
     </row>
@@ -16626,7 +16627,7 @@
       </c>
       <c r="F540" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694658</t>
+          <t>2021-10-05 14:22:48.101038</t>
         </is>
       </c>
     </row>
@@ -16656,7 +16657,7 @@
       </c>
       <c r="F541" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694660</t>
+          <t>2021-10-05 14:22:48.101040</t>
         </is>
       </c>
     </row>
@@ -16686,7 +16687,7 @@
       </c>
       <c r="F542" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694663</t>
+          <t>2021-10-05 14:22:48.101043</t>
         </is>
       </c>
     </row>
@@ -16716,7 +16717,7 @@
       </c>
       <c r="F543" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694665</t>
+          <t>2021-10-05 14:22:48.101045</t>
         </is>
       </c>
     </row>
@@ -16746,7 +16747,7 @@
       </c>
       <c r="F544" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694668</t>
+          <t>2021-10-05 14:22:48.101048</t>
         </is>
       </c>
     </row>
@@ -16776,7 +16777,7 @@
       </c>
       <c r="F545" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694670</t>
+          <t>2021-10-05 14:22:48.101050</t>
         </is>
       </c>
     </row>
@@ -16806,7 +16807,7 @@
       </c>
       <c r="F546" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694673</t>
+          <t>2021-10-05 14:22:48.101053</t>
         </is>
       </c>
     </row>
@@ -16836,7 +16837,7 @@
       </c>
       <c r="F547" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694675</t>
+          <t>2021-10-05 14:22:48.101055</t>
         </is>
       </c>
     </row>
@@ -16866,7 +16867,7 @@
       </c>
       <c r="F548" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694677</t>
+          <t>2021-10-05 14:22:48.101058</t>
         </is>
       </c>
     </row>
@@ -16896,7 +16897,7 @@
       </c>
       <c r="F549" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694680</t>
+          <t>2021-10-05 14:22:48.101060</t>
         </is>
       </c>
     </row>
@@ -16926,7 +16927,7 @@
       </c>
       <c r="F550" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694682</t>
+          <t>2021-10-05 14:22:48.101063</t>
         </is>
       </c>
     </row>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="F551" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694685</t>
+          <t>2021-10-05 14:22:48.101065</t>
         </is>
       </c>
     </row>
@@ -16986,7 +16987,7 @@
       </c>
       <c r="F552" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694687</t>
+          <t>2021-10-05 14:22:48.101068</t>
         </is>
       </c>
     </row>
@@ -17016,7 +17017,7 @@
       </c>
       <c r="F553" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694690</t>
+          <t>2021-10-05 14:22:48.101070</t>
         </is>
       </c>
     </row>
@@ -17046,7 +17047,7 @@
       </c>
       <c r="F554" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694693</t>
+          <t>2021-10-05 14:22:48.101072</t>
         </is>
       </c>
     </row>
@@ -17076,7 +17077,7 @@
       </c>
       <c r="F555" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694695</t>
+          <t>2021-10-05 14:22:48.101075</t>
         </is>
       </c>
     </row>
@@ -17106,7 +17107,7 @@
       </c>
       <c r="F556" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694698</t>
+          <t>2021-10-05 14:22:48.101077</t>
         </is>
       </c>
     </row>
@@ -17136,7 +17137,7 @@
       </c>
       <c r="F557" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694700</t>
+          <t>2021-10-05 14:22:48.101080</t>
         </is>
       </c>
     </row>
@@ -17166,7 +17167,7 @@
       </c>
       <c r="F558" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694703</t>
+          <t>2021-10-05 14:22:48.101083</t>
         </is>
       </c>
     </row>
@@ -17196,7 +17197,7 @@
       </c>
       <c r="F559" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694705</t>
+          <t>2021-10-05 14:22:48.101085</t>
         </is>
       </c>
     </row>
@@ -17226,7 +17227,7 @@
       </c>
       <c r="F560" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694707</t>
+          <t>2021-10-05 14:22:48.101088</t>
         </is>
       </c>
     </row>
@@ -17256,7 +17257,7 @@
       </c>
       <c r="F561" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694710</t>
+          <t>2021-10-05 14:22:48.101090</t>
         </is>
       </c>
     </row>
@@ -17286,7 +17287,7 @@
       </c>
       <c r="F562" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694712</t>
+          <t>2021-10-05 14:22:48.101093</t>
         </is>
       </c>
     </row>
@@ -17316,7 +17317,7 @@
       </c>
       <c r="F563" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694715</t>
+          <t>2021-10-05 14:22:48.101096</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17347,7 @@
       </c>
       <c r="F564" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694717</t>
+          <t>2021-10-05 14:22:48.101098</t>
         </is>
       </c>
     </row>
@@ -17376,7 +17377,7 @@
       </c>
       <c r="F565" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694720</t>
+          <t>2021-10-05 14:22:48.101101</t>
         </is>
       </c>
     </row>
@@ -17406,7 +17407,7 @@
       </c>
       <c r="F566" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694722</t>
+          <t>2021-10-05 14:22:48.101104</t>
         </is>
       </c>
     </row>
@@ -17436,7 +17437,7 @@
       </c>
       <c r="F567" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694725</t>
+          <t>2021-10-05 14:22:48.101106</t>
         </is>
       </c>
     </row>
@@ -17466,7 +17467,7 @@
       </c>
       <c r="F568" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694727</t>
+          <t>2021-10-05 14:22:48.101109</t>
         </is>
       </c>
     </row>
@@ -17496,7 +17497,7 @@
       </c>
       <c r="F569" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694730</t>
+          <t>2021-10-05 14:22:48.101111</t>
         </is>
       </c>
     </row>
@@ -17526,7 +17527,7 @@
       </c>
       <c r="F570" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694732</t>
+          <t>2021-10-05 14:22:48.101114</t>
         </is>
       </c>
     </row>
@@ -17556,7 +17557,7 @@
       </c>
       <c r="F571" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694734</t>
+          <t>2021-10-05 14:22:48.101116</t>
         </is>
       </c>
     </row>
@@ -17586,7 +17587,7 @@
       </c>
       <c r="F572" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694737</t>
+          <t>2021-10-05 14:22:48.101119</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17617,7 @@
       </c>
       <c r="F573" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694739</t>
+          <t>2021-10-05 14:22:48.101121</t>
         </is>
       </c>
     </row>
@@ -17646,7 +17647,7 @@
       </c>
       <c r="F574" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694742</t>
+          <t>2021-10-05 14:22:48.101124</t>
         </is>
       </c>
     </row>
@@ -17676,7 +17677,7 @@
       </c>
       <c r="F575" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694744</t>
+          <t>2021-10-05 14:22:48.101126</t>
         </is>
       </c>
     </row>
@@ -17706,7 +17707,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694747</t>
+          <t>2021-10-05 14:22:48.101129</t>
         </is>
       </c>
     </row>
@@ -17736,7 +17737,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694749</t>
+          <t>2021-10-05 14:22:48.101131</t>
         </is>
       </c>
     </row>
@@ -17766,7 +17767,7 @@
       </c>
       <c r="F578" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694752</t>
+          <t>2021-10-05 14:22:48.101133</t>
         </is>
       </c>
     </row>
@@ -17796,7 +17797,7 @@
       </c>
       <c r="F579" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694754</t>
+          <t>2021-10-05 14:22:48.101136</t>
         </is>
       </c>
     </row>
@@ -17826,7 +17827,7 @@
       </c>
       <c r="F580" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694757</t>
+          <t>2021-10-05 14:22:48.101138</t>
         </is>
       </c>
     </row>
@@ -17856,7 +17857,7 @@
       </c>
       <c r="F581" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694759</t>
+          <t>2021-10-05 14:22:48.101141</t>
         </is>
       </c>
     </row>
@@ -17886,7 +17887,7 @@
       </c>
       <c r="F582" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694762</t>
+          <t>2021-10-05 14:22:48.101143</t>
         </is>
       </c>
     </row>
@@ -17916,7 +17917,7 @@
       </c>
       <c r="F583" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694764</t>
+          <t>2021-10-05 14:22:48.101146</t>
         </is>
       </c>
     </row>
@@ -17946,7 +17947,7 @@
       </c>
       <c r="F584" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694766</t>
+          <t>2021-10-05 14:22:48.101148</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17977,7 @@
       </c>
       <c r="F585" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694769</t>
+          <t>2021-10-05 14:22:48.101151</t>
         </is>
       </c>
     </row>
@@ -18006,7 +18007,7 @@
       </c>
       <c r="F586" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694771</t>
+          <t>2021-10-05 14:22:48.101153</t>
         </is>
       </c>
     </row>
@@ -18036,7 +18037,7 @@
       </c>
       <c r="F587" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694774</t>
+          <t>2021-10-05 14:22:48.101156</t>
         </is>
       </c>
     </row>
@@ -18066,7 +18067,7 @@
       </c>
       <c r="F588" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694776</t>
+          <t>2021-10-05 14:22:48.101158</t>
         </is>
       </c>
     </row>
@@ -18096,7 +18097,7 @@
       </c>
       <c r="F589" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694779</t>
+          <t>2021-10-05 14:22:48.101160</t>
         </is>
       </c>
     </row>
@@ -18126,7 +18127,7 @@
       </c>
       <c r="F590" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694781</t>
+          <t>2021-10-05 14:22:48.101163</t>
         </is>
       </c>
     </row>
@@ -18156,7 +18157,7 @@
       </c>
       <c r="F591" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694784</t>
+          <t>2021-10-05 14:22:48.101166</t>
         </is>
       </c>
     </row>
@@ -18186,7 +18187,7 @@
       </c>
       <c r="F592" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694787</t>
+          <t>2021-10-05 14:22:48.101168</t>
         </is>
       </c>
     </row>
@@ -18216,7 +18217,7 @@
       </c>
       <c r="F593" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694789</t>
+          <t>2021-10-05 14:22:48.101171</t>
         </is>
       </c>
     </row>
@@ -18246,7 +18247,7 @@
       </c>
       <c r="F594" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694794</t>
+          <t>2021-10-05 14:22:48.101174</t>
         </is>
       </c>
     </row>
@@ -18276,7 +18277,7 @@
       </c>
       <c r="F595" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694797</t>
+          <t>2021-10-05 14:22:48.101177</t>
         </is>
       </c>
     </row>
@@ -18306,7 +18307,7 @@
       </c>
       <c r="F596" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694800</t>
+          <t>2021-10-05 14:22:48.101180</t>
         </is>
       </c>
     </row>
@@ -18336,7 +18337,7 @@
       </c>
       <c r="F597" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694802</t>
+          <t>2021-10-05 14:22:48.101182</t>
         </is>
       </c>
     </row>
@@ -18366,7 +18367,7 @@
       </c>
       <c r="F598" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694805</t>
+          <t>2021-10-05 14:22:48.101185</t>
         </is>
       </c>
     </row>
@@ -18396,7 +18397,91 @@
       </c>
       <c r="F599" t="inlineStr">
         <is>
-          <t>2021-10-05 13:42:16.694808</t>
+          <t>2021-10-05 14:22:48.101187</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Skeletal dysplasia</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>309</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.134</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-09-30T11:18:35.660375Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:22:48.096501</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.genomicsengland.co.uk/api/v1/panels/309/?format=json</t>
         </is>
       </c>
     </row>
